--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_EN.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\VisitReport\2019\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="14_{E7E331D1-8E9B-47B4-AC6C-2D8272A0A12F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B71FDCE3-DF5D-4158-AEEE-78635F9CF5FB}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="14_{E7E331D1-8E9B-47B4-AC6C-2D8272A0A12F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D42465F4-E949-4429-A97E-E13C869EF6A8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="checkbox">Specifications!$C$7:$D$24,Specifications!$C$28:$D$37,Specifications!$C$39:$D$48</definedName>
+    <definedName name="Field_type">Specifications!$I$7:$I$24,Specifications!$M$7:$M$24,Specifications!$Q$7:$Q$24,Specifications!$Y$7:$Y$24,Specifications!$U$7:$U$24,Specifications!$Y$28:$Y$37,Specifications!$U$28:$U$37,Specifications!$Q$28:$Q$37,Specifications!$M$29:$M$37,Specifications!$M$28:$M$37,Specifications!$I$28:$I$37,Specifications!$I$39:$I$48,Specifications!$Q$39:$Q$48,Specifications!$U$39:$U$48,Specifications!$Y$39:$Y$48,Specifications!$Y$51:$Y$61,Specifications!$U$51:$U$61,Specifications!$Q$51:$Q$61,Specifications!$M$51:$M$61,Specifications!$I$51:$I$61</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="89">
   <si>
     <t>Website</t>
   </si>
@@ -42,12 +46,6 @@
     <t>Fax</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Dropdown</t>
-  </si>
-  <si>
     <t>Salutation</t>
   </si>
   <si>
@@ -193,9 +191,6 @@
   </si>
   <si>
     <t>Question Type</t>
-  </si>
-  <si>
-    <t>dropdown</t>
   </si>
   <si>
     <t>multiselect</t>
@@ -279,9 +274,6 @@
     <t>not used</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Title of Template</t>
   </si>
   <si>
@@ -304,9 +296,6 @@
   </si>
   <si>
     <t>Default Value</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <r>
@@ -1775,6 +1764,33 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1801,33 +1817,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2663,7 +2652,7 @@
   <dimension ref="A1:Y62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2687,7 +2676,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2698,7 +2687,7 @@
     </row>
     <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2713,99 +2702,99 @@
     </row>
     <row r="4" spans="1:25" ht="63" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="43" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E4" s="44"/>
-      <c r="G4" s="125" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
+      <c r="G4" s="134" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="125" t="s">
-        <v>88</v>
-      </c>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="O4" s="125" t="s">
-        <v>89</v>
-      </c>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="S4" s="118" t="s">
-        <v>85</v>
-      </c>
-      <c r="T4" s="119"/>
-      <c r="U4" s="120"/>
-      <c r="W4" s="122" t="s">
+      <c r="K4" s="134" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="O4" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="X4" s="123"/>
-      <c r="Y4" s="124"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="S4" s="127" t="s">
+        <v>80</v>
+      </c>
+      <c r="T4" s="128"/>
+      <c r="U4" s="129"/>
+      <c r="W4" s="131" t="s">
+        <v>79</v>
+      </c>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="133"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="72"/>
       <c r="C6" s="73"/>
       <c r="D6" s="73"/>
       <c r="E6" s="54" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G6" s="74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H6" s="75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I6" s="76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L6" s="75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M6" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="75" t="s">
-        <v>37</v>
-      </c>
       <c r="Q6" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="100" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="100" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" s="101" t="s">
-        <v>37</v>
-      </c>
       <c r="U6" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" s="100" t="s">
+        <v>32</v>
+      </c>
+      <c r="X6" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="W6" s="100" t="s">
-        <v>34</v>
-      </c>
-      <c r="X6" s="101" t="s">
-        <v>37</v>
-      </c>
       <c r="Y6" s="102" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2833,118 +2822,112 @@
     </row>
     <row r="8" spans="1:25" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="64" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C8" s="66"/>
-      <c r="D8" s="67" t="s">
-        <v>72</v>
-      </c>
+      <c r="D8" s="67"/>
       <c r="E8" s="68"/>
       <c r="G8" s="79" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8" s="69"/>
       <c r="I8" s="80" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="J8" s="70"/>
       <c r="K8" s="79" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L8" s="69"/>
       <c r="M8" s="80" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="O8" s="79"/>
       <c r="P8" s="69"/>
       <c r="Q8" s="80"/>
       <c r="S8" s="105" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="T8" s="69" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="U8" s="106"/>
       <c r="W8" s="105" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X8" s="69"/>
       <c r="Y8" s="106" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>72</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C9" s="28"/>
       <c r="D9" s="29"/>
       <c r="E9" s="52"/>
       <c r="G9" s="81" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="82" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="81" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="82" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="O9" s="81"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="82"/>
       <c r="S9" s="107" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U9" s="108"/>
       <c r="W9" s="109" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X9" s="5"/>
       <c r="Y9" s="108" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="22"/>
-      <c r="C10" s="28" t="s">
-        <v>72</v>
-      </c>
+      <c r="C10" s="28"/>
       <c r="D10" s="29"/>
       <c r="E10" s="52"/>
       <c r="G10" s="81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="82" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="82" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="O10" s="81"/>
       <c r="P10" s="5"/>
@@ -2953,37 +2936,35 @@
       <c r="T10" s="5"/>
       <c r="U10" s="108"/>
       <c r="W10" s="109" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X10" s="5"/>
       <c r="Y10" s="108" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="22"/>
-      <c r="C11" s="28" t="s">
-        <v>72</v>
-      </c>
+      <c r="C11" s="28"/>
       <c r="D11" s="29"/>
       <c r="E11" s="52"/>
       <c r="G11" s="81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="82" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="82" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="O11" s="81"/>
       <c r="P11" s="5"/>
@@ -2992,322 +2973,320 @@
       <c r="T11" s="5"/>
       <c r="U11" s="108"/>
       <c r="W11" s="109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X11" s="5"/>
       <c r="Y11" s="108" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="29"/>
       <c r="E12" s="52"/>
       <c r="G12" s="81" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="82" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="81"/>
       <c r="L12" s="5"/>
       <c r="M12" s="82"/>
       <c r="O12" s="81" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="82" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="S12" s="109"/>
       <c r="T12" s="5"/>
       <c r="U12" s="108"/>
       <c r="W12" s="109" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X12" s="5"/>
       <c r="Y12" s="108" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
       <c r="E13" s="52"/>
       <c r="G13" s="77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="78" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="77" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="78" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="O13" s="77" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="78" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="S13" s="109"/>
       <c r="T13" s="5"/>
       <c r="U13" s="108"/>
       <c r="W13" s="109" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X13" s="5"/>
       <c r="Y13" s="108" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:25" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="65"/>
       <c r="C14" s="66"/>
-      <c r="D14" s="67" t="s">
-        <v>72</v>
-      </c>
+      <c r="D14" s="67"/>
       <c r="E14" s="68"/>
       <c r="G14" s="83" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H14" s="71"/>
       <c r="I14" s="84" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="J14" s="70"/>
       <c r="K14" s="83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L14" s="71"/>
       <c r="M14" s="84" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="O14" s="83" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P14" s="71"/>
       <c r="Q14" s="84" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="S14" s="110"/>
       <c r="T14" s="71"/>
       <c r="U14" s="111"/>
       <c r="W14" s="110" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X14" s="71"/>
       <c r="Y14" s="111" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
       <c r="E15" s="52"/>
       <c r="G15" s="85" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="86" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="85" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="86" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="O15" s="85" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P15" s="10"/>
       <c r="Q15" s="86" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="S15" s="109"/>
       <c r="T15" s="5"/>
       <c r="U15" s="108"/>
       <c r="W15" s="109" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X15" s="5"/>
       <c r="Y15" s="108" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
       <c r="E16" s="52"/>
       <c r="G16" s="81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="82" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="81" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="82" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="O16" s="81" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="82" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="S16" s="109"/>
       <c r="T16" s="5"/>
       <c r="U16" s="108"/>
       <c r="W16" s="109" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X16" s="5"/>
       <c r="Y16" s="108" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
       <c r="E17" s="52"/>
       <c r="G17" s="81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="82" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="81" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="82" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="O17" s="81" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="82" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="S17" s="109"/>
       <c r="T17" s="5"/>
       <c r="U17" s="108"/>
       <c r="W17" s="109" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="X17" s="5"/>
       <c r="Y17" s="108" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
       <c r="E18" s="52"/>
       <c r="G18" s="81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="82" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="82" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="O18" s="81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P18" s="5"/>
       <c r="Q18" s="82" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="S18" s="109"/>
       <c r="T18" s="5"/>
       <c r="U18" s="108"/>
       <c r="W18" s="109" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X18" s="5"/>
       <c r="Y18" s="108" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
       <c r="E19" s="52"/>
       <c r="G19" s="81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="82" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="82" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="O19" s="81"/>
       <c r="P19" s="5"/>
@@ -3316,11 +3295,11 @@
       <c r="T19" s="5"/>
       <c r="U19" s="108"/>
       <c r="W19" s="109" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="X19" s="5"/>
       <c r="Y19" s="108" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:25" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -3329,16 +3308,14 @@
       </c>
       <c r="B20" s="65"/>
       <c r="C20" s="66"/>
-      <c r="D20" s="67" t="s">
-        <v>72</v>
-      </c>
+      <c r="D20" s="67"/>
       <c r="E20" s="68"/>
       <c r="G20" s="83" t="s">
         <v>2</v>
       </c>
       <c r="H20" s="71"/>
       <c r="I20" s="84" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="J20" s="70"/>
       <c r="K20" s="83" t="s">
@@ -3346,14 +3323,14 @@
       </c>
       <c r="L20" s="71"/>
       <c r="M20" s="84" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="O20" s="83" t="s">
         <v>2</v>
       </c>
       <c r="P20" s="71"/>
       <c r="Q20" s="84" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="S20" s="110"/>
       <c r="T20" s="71"/>
@@ -3363,7 +3340,7 @@
       </c>
       <c r="X20" s="71"/>
       <c r="Y20" s="111" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -3371,25 +3348,23 @@
         <v>1</v>
       </c>
       <c r="B21" s="22"/>
-      <c r="C21" s="28" t="s">
-        <v>72</v>
-      </c>
+      <c r="C21" s="28"/>
       <c r="D21" s="29"/>
       <c r="E21" s="52"/>
       <c r="G21" s="81" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="82" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="81" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="82" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="O21" s="81"/>
       <c r="P21" s="5"/>
@@ -3398,11 +3373,11 @@
       <c r="T21" s="5"/>
       <c r="U21" s="108"/>
       <c r="W21" s="109" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X21" s="5"/>
       <c r="Y21" s="108" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -3418,7 +3393,7 @@
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="78" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="77"/>
@@ -3429,7 +3404,7 @@
       </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="78" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="S22" s="103"/>
       <c r="T22" s="6"/>
@@ -3439,7 +3414,7 @@
       </c>
       <c r="X22" s="6"/>
       <c r="Y22" s="104" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -3508,106 +3483,106 @@
     </row>
     <row r="26" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
-      <c r="G26" s="126" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
+      <c r="G26" s="135" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="126" t="s">
-        <v>88</v>
-      </c>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
+      <c r="K26" s="135" t="s">
+        <v>83</v>
+      </c>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
       <c r="N26" s="18"/>
-      <c r="O26" s="126" t="s">
-        <v>89</v>
-      </c>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="126"/>
+      <c r="O26" s="135" t="s">
+        <v>84</v>
+      </c>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="135"/>
       <c r="R26" s="18"/>
-      <c r="S26" s="121" t="s">
-        <v>90</v>
-      </c>
-      <c r="T26" s="121"/>
-      <c r="U26" s="121"/>
+      <c r="S26" s="130" t="s">
+        <v>85</v>
+      </c>
+      <c r="T26" s="130"/>
+      <c r="U26" s="130"/>
       <c r="V26" s="18"/>
-      <c r="W26" s="121" t="s">
-        <v>90</v>
-      </c>
-      <c r="X26" s="121"/>
-      <c r="Y26" s="121"/>
+      <c r="W26" s="130" t="s">
+        <v>85</v>
+      </c>
+      <c r="X26" s="130"/>
+      <c r="Y26" s="130"/>
     </row>
     <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="57" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="58" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G27" s="74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H27" s="75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I27" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27" s="75" t="s">
-        <v>37</v>
-      </c>
       <c r="M27" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="O27" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="P27" s="75" t="s">
-        <v>37</v>
-      </c>
       <c r="Q27" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="S27" s="100" t="s">
+        <v>32</v>
+      </c>
+      <c r="T27" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="S27" s="100" t="s">
-        <v>34</v>
-      </c>
-      <c r="T27" s="101" t="s">
-        <v>37</v>
-      </c>
       <c r="U27" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="W27" s="100" t="s">
+        <v>32</v>
+      </c>
+      <c r="X27" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="W27" s="100" t="s">
-        <v>34</v>
-      </c>
-      <c r="X27" s="101" t="s">
-        <v>37</v>
-      </c>
       <c r="Y27" s="102" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="34"/>
@@ -3615,7 +3590,7 @@
       <c r="G28" s="81"/>
       <c r="H28" s="5"/>
       <c r="I28" s="82" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K28" s="81"/>
       <c r="L28" s="5"/>
@@ -3632,10 +3607,10 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C29" s="41"/>
       <c r="D29" s="35"/>
@@ -3643,7 +3618,7 @@
       <c r="G29" s="81"/>
       <c r="H29" s="5"/>
       <c r="I29" s="82" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K29" s="81"/>
       <c r="L29" s="5"/>
@@ -3660,10 +3635,10 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C30" s="41"/>
       <c r="D30" s="35"/>
@@ -3686,10 +3661,10 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C31" s="41"/>
       <c r="D31" s="35"/>
@@ -3712,7 +3687,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="41"/>
@@ -3736,7 +3711,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33" s="35"/>
       <c r="C33" s="41"/>
@@ -3760,7 +3735,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="41"/>
@@ -3784,7 +3759,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" s="35"/>
       <c r="C35" s="41"/>
@@ -3808,7 +3783,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B36" s="35"/>
       <c r="C36" s="41"/>
@@ -3832,7 +3807,7 @@
     </row>
     <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B37" s="36"/>
       <c r="C37" s="42"/>
@@ -3856,65 +3831,65 @@
     </row>
     <row r="38" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G38" s="74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H38" s="75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I38" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="K38" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="K38" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="L38" s="91" t="s">
-        <v>37</v>
-      </c>
       <c r="M38" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="O38" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="O38" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="P38" s="75" t="s">
-        <v>37</v>
-      </c>
       <c r="Q38" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="S38" s="116" t="s">
+        <v>32</v>
+      </c>
+      <c r="T38" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="S38" s="116" t="s">
-        <v>34</v>
-      </c>
-      <c r="T38" s="115" t="s">
-        <v>37</v>
-      </c>
       <c r="U38" s="117" t="s">
+        <v>33</v>
+      </c>
+      <c r="W38" s="116" t="s">
+        <v>32</v>
+      </c>
+      <c r="X38" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="W38" s="116" t="s">
-        <v>34</v>
-      </c>
-      <c r="X38" s="115" t="s">
-        <v>37</v>
-      </c>
       <c r="Y38" s="117" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39" s="34"/>
       <c r="C39" s="40"/>
@@ -3938,7 +3913,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" s="35"/>
       <c r="C40" s="41"/>
@@ -3962,7 +3937,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" s="35"/>
       <c r="C41" s="41"/>
@@ -3986,7 +3961,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42" s="35"/>
       <c r="C42" s="41"/>
@@ -4010,7 +3985,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43" s="35"/>
       <c r="C43" s="41"/>
@@ -4034,7 +4009,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44" s="35"/>
       <c r="C44" s="41"/>
@@ -4058,7 +4033,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45" s="35"/>
       <c r="C45" s="41"/>
@@ -4082,7 +4057,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46" s="35"/>
       <c r="C46" s="41"/>
@@ -4106,7 +4081,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47" s="35"/>
       <c r="C47" s="41"/>
@@ -4130,7 +4105,7 @@
     </row>
     <row r="48" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B48" s="36"/>
       <c r="C48" s="42"/>
@@ -4161,71 +4136,71 @@
     </row>
     <row r="50" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G50" s="74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H50" s="75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I50" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="K50" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="L50" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="K50" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="L50" s="75" t="s">
-        <v>37</v>
-      </c>
       <c r="M50" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="O50" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="P50" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="O50" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="P50" s="75" t="s">
-        <v>37</v>
-      </c>
       <c r="Q50" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="S50" s="116" t="s">
+        <v>32</v>
+      </c>
+      <c r="T50" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="S50" s="116" t="s">
-        <v>34</v>
-      </c>
-      <c r="T50" s="115" t="s">
-        <v>37</v>
-      </c>
       <c r="U50" s="117" t="s">
+        <v>33</v>
+      </c>
+      <c r="W50" s="116" t="s">
+        <v>32</v>
+      </c>
+      <c r="X50" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="W50" s="116" t="s">
-        <v>34</v>
-      </c>
-      <c r="X50" s="115" t="s">
-        <v>37</v>
-      </c>
       <c r="Y50" s="117" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A51" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="127" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="128"/>
-      <c r="D51" s="129"/>
+        <v>61</v>
+      </c>
+      <c r="B51" s="124" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="125"/>
+      <c r="D51" s="126"/>
       <c r="E51" s="45"/>
       <c r="G51" s="81"/>
       <c r="H51" s="5"/>
@@ -4245,13 +4220,13 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="130" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="131"/>
-      <c r="D52" s="132"/>
+        <v>64</v>
+      </c>
+      <c r="B52" s="118" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="119"/>
+      <c r="D52" s="120"/>
       <c r="E52" s="46"/>
       <c r="G52" s="81"/>
       <c r="H52" s="5"/>
@@ -4271,13 +4246,13 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="130" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="131"/>
-      <c r="D53" s="132"/>
+        <v>66</v>
+      </c>
+      <c r="B53" s="118" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="119"/>
+      <c r="D53" s="120"/>
       <c r="E53" s="46"/>
       <c r="G53" s="81"/>
       <c r="H53" s="5"/>
@@ -4297,13 +4272,13 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="130" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="131"/>
-      <c r="D54" s="132"/>
+        <v>65</v>
+      </c>
+      <c r="B54" s="118" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="119"/>
+      <c r="D54" s="120"/>
       <c r="E54" s="46"/>
       <c r="G54" s="81"/>
       <c r="H54" s="5"/>
@@ -4323,24 +4298,24 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="130" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="131"/>
-      <c r="D55" s="132"/>
+        <v>72</v>
+      </c>
+      <c r="B55" s="118" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="119"/>
+      <c r="D55" s="120"/>
       <c r="E55" s="46" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G55" s="81" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I55" s="82" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="K55" s="81"/>
       <c r="L55" s="5"/>
@@ -4379,9 +4354,9 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="38"/>
-      <c r="B57" s="130"/>
-      <c r="C57" s="131"/>
-      <c r="D57" s="132"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="120"/>
       <c r="E57" s="46"/>
       <c r="G57" s="81"/>
       <c r="H57" s="5"/>
@@ -4401,9 +4376,9 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="38"/>
-      <c r="B58" s="130"/>
-      <c r="C58" s="131"/>
-      <c r="D58" s="132"/>
+      <c r="B58" s="118"/>
+      <c r="C58" s="119"/>
+      <c r="D58" s="120"/>
       <c r="E58" s="46"/>
       <c r="G58" s="81"/>
       <c r="H58" s="5"/>
@@ -4423,9 +4398,9 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="38"/>
-      <c r="B59" s="130"/>
-      <c r="C59" s="131"/>
-      <c r="D59" s="132"/>
+      <c r="B59" s="118"/>
+      <c r="C59" s="119"/>
+      <c r="D59" s="120"/>
       <c r="E59" s="46"/>
       <c r="G59" s="81"/>
       <c r="H59" s="5"/>
@@ -4445,9 +4420,9 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="38"/>
-      <c r="B60" s="130"/>
-      <c r="C60" s="131"/>
-      <c r="D60" s="132"/>
+      <c r="B60" s="118"/>
+      <c r="C60" s="119"/>
+      <c r="D60" s="120"/>
       <c r="E60" s="46"/>
       <c r="G60" s="81"/>
       <c r="H60" s="5"/>
@@ -4467,9 +4442,9 @@
     </row>
     <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="39"/>
-      <c r="B61" s="133"/>
-      <c r="C61" s="134"/>
-      <c r="D61" s="135"/>
+      <c r="B61" s="121"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="123"/>
       <c r="E61" s="47"/>
       <c r="G61" s="87"/>
       <c r="H61" s="88"/>
@@ -4489,22 +4464,12 @@
     </row>
     <row r="62" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/9XnNNknHWIJ9IyVE3VSZw7j4HkccYJgvHCVN+ATddVo+brIFAa9OsfIJSWdA1usyzyDRkPBX3wmsgtXniPQhQ==" saltValue="R/K6Il2Bsi9xtHaPpQm5Ww==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0"/>
+  <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
     <protectedRange sqref="A28:X37 A39:Y48 A51:Y61" name="Questionnaire"/>
     <protectedRange sqref="A7:Q24" name="Contact Fields"/>
   </protectedRanges>
   <mergeCells count="20">
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="S26:U26"/>
     <mergeCell ref="W4:Y4"/>
@@ -4515,6 +4480,16 @@
     <mergeCell ref="K26:M26"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A8:AG48">
@@ -4565,6 +4540,14 @@
       <formula>$D51="x"</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D24 C28:D37 C39:D48" xr:uid="{8BCE4F46-4CA4-455B-A668-B344A4C50BD9}">
+      <formula1>"x"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I24 M7:M24 Q7:Q24 Y7:Y24 U7:U24 Y28:Y37 U28:U37 Q28:Q37 M29:M37 M28:M37 I28:I37 I39:I48 Q39:Q48 U39:U48 Y39:Y48 Y51:Y61 U51:U61 Q51:Q61 M51:M61 I51:I61" xr:uid="{5380AF85-53E9-4EE9-A76D-FB92A300577D}">
+      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4572,21 +4555,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -4795,10 +4763,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4821,20 +4815,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_EN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\SAP_C4C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084332F4-0F64-40DE-A571-A8C14B84AD7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DFAD66-4D1C-46B4-95EE-46EEF5C4E464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8Dyaui/daSUT/hOvn8XBo2s24xlJVXslcs1WHSyLVowDjRkSWj4RV+pFVEsQSEKModckNG3YVppR/q0TwGchqw==" workbookSaltValue="ZPx5szgFR6cPwbArCr9dlg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -35,6 +35,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{BF79D208-91C7-4843-A8B5-D07E55782625}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter "x", if the field must be filled</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{C30018CD-8F6F-4D22-BEFC-F9589B7CD691}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter "x", if the field is not used</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="111">
   <si>
@@ -114,12 +152,6 @@
   </si>
   <si>
     <t>Default Value</t>
-  </si>
-  <si>
-    <t>SAP: Custom Entity</t>
-  </si>
-  <si>
-    <t>SAP: Custom Entity (optional)</t>
   </si>
   <si>
     <t>CRM System: SAP C/4HANA</t>
@@ -392,20 +424,26 @@
     <t xml:space="preserve">Group 2 </t>
   </si>
   <si>
-    <t>SAP C/4HANA: Custom Entity</t>
-  </si>
-  <si>
     <t>ContactEMail</t>
   </si>
   <si>
     <t>RegionCode</t>
+  </si>
+  <si>
+    <t>SAP: Additional Entity (optional)</t>
+  </si>
+  <si>
+    <t>SAP C/4HANA: Additional Entity</t>
+  </si>
+  <si>
+    <t>SAP: Additional Entity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,6 +539,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -546,7 +591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="117">
+  <borders count="116">
     <border>
       <left/>
       <right/>
@@ -629,21 +674,6 @@
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF9DA600"/>
@@ -2026,7 +2056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2041,17 +2071,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2064,28 +2100,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2093,104 +2126,98 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -2198,81 +2225,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -2280,7 +2323,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2289,43 +2332,27 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3750,11 +3777,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3777,8 +3804,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
-        <v>80</v>
+      <c r="A1" s="95" t="s">
+        <v>78</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3789,7 +3816,7 @@
     </row>
     <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3799,8 +3826,8 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="G3" s="38"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:25" ht="63.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
@@ -3808,334 +3835,334 @@
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="30"/>
-      <c r="G4" s="165" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
+      <c r="G4" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="165" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="165"/>
-      <c r="M4" s="165"/>
-      <c r="O4" s="165" t="s">
-        <v>87</v>
-      </c>
-      <c r="P4" s="165"/>
-      <c r="Q4" s="165"/>
-      <c r="S4" s="159" t="s">
-        <v>27</v>
-      </c>
-      <c r="T4" s="160"/>
-      <c r="U4" s="161"/>
-      <c r="W4" s="162" t="s">
-        <v>26</v>
-      </c>
-      <c r="X4" s="163"/>
-      <c r="Y4" s="164"/>
+      <c r="K4" s="169" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="169"/>
+      <c r="M4" s="169"/>
+      <c r="O4" s="169" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="169"/>
+      <c r="S4" s="163" t="s">
+        <v>108</v>
+      </c>
+      <c r="T4" s="164"/>
+      <c r="U4" s="165"/>
+      <c r="W4" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="X4" s="167"/>
+      <c r="Y4" s="168"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="148" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="50" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="49" t="s">
+      <c r="K6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="51" t="s">
+      <c r="M6" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="49" t="s">
+      <c r="O6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="50" t="s">
+      <c r="P6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="Q6" s="51" t="s">
+      <c r="Q6" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="63" t="s">
+      <c r="S6" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="64" t="s">
+      <c r="T6" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="W6" s="63" t="s">
+      <c r="W6" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="X6" s="64" t="s">
+      <c r="X6" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="Y6" s="65" t="s">
+      <c r="Y6" s="64" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="16"/>
       <c r="C7" s="21"/>
       <c r="D7" s="22"/>
       <c r="E7" s="34"/>
-      <c r="G7" s="52"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="53"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="52"/>
+      <c r="K7" s="51"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="53"/>
-      <c r="O7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="O7" s="51"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="53"/>
-      <c r="S7" s="66"/>
+      <c r="Q7" s="52"/>
+      <c r="S7" s="65"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="67"/>
-      <c r="W7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="W7" s="65"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="67"/>
-    </row>
-    <row r="8" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y7" s="66"/>
+    </row>
+    <row r="8" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="G8" s="54" t="s">
-        <v>88</v>
+        <v>57</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="G8" s="53" t="s">
+        <v>86</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="54"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="53"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="55"/>
+      <c r="M8" s="54"/>
       <c r="N8"/>
-      <c r="O8" s="54"/>
+      <c r="O8" s="53"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="55"/>
-      <c r="S8" s="70" t="s">
+      <c r="Q8" s="54"/>
+      <c r="S8" s="69" t="s">
         <v>20</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="U8" s="69"/>
-      <c r="W8" s="70"/>
+      <c r="U8" s="68"/>
+      <c r="W8" s="69"/>
       <c r="X8" s="5"/>
-      <c r="Y8" s="69"/>
+      <c r="Y8" s="68"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="35"/>
-      <c r="G9" s="54" t="s">
-        <v>70</v>
+      <c r="G9" s="53" t="s">
+        <v>68</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="54" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="54" t="s">
-        <v>70</v>
+      <c r="K9" s="53" t="s">
+        <v>68</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="54"/>
+      <c r="O9" s="53"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="55"/>
-      <c r="S9" s="68" t="s">
+      <c r="Q9" s="54"/>
+      <c r="S9" s="67" t="s">
         <v>22</v>
       </c>
       <c r="T9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="U9" s="69"/>
-      <c r="W9" s="70"/>
+      <c r="U9" s="68"/>
+      <c r="W9" s="69"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="69"/>
+      <c r="Y9" s="68"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="35"/>
-      <c r="G10" s="54" t="s">
-        <v>89</v>
+      <c r="G10" s="53" t="s">
+        <v>87</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="54" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="54"/>
+      <c r="K10" s="53"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="84"/>
-      <c r="O10" s="54"/>
+      <c r="M10" s="83"/>
+      <c r="O10" s="53"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="55"/>
-      <c r="S10" s="68"/>
+      <c r="Q10" s="54"/>
+      <c r="S10" s="67"/>
       <c r="T10" s="10"/>
-      <c r="U10" s="69"/>
-      <c r="W10" s="70"/>
+      <c r="U10" s="68"/>
+      <c r="W10" s="69"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="69"/>
+      <c r="Y10" s="68"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
       <c r="E11" s="35"/>
-      <c r="G11" s="54" t="s">
-        <v>61</v>
+      <c r="G11" s="53" t="s">
+        <v>59</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="83" t="s">
         <v>18</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="54" t="s">
-        <v>61</v>
+      <c r="K11" s="53" t="s">
+        <v>59</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="84" t="s">
+      <c r="M11" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="O11" s="54"/>
+      <c r="O11" s="53"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="55"/>
-      <c r="S11" s="70"/>
+      <c r="Q11" s="54"/>
+      <c r="S11" s="69"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="69"/>
-      <c r="W11" s="70"/>
+      <c r="U11" s="68"/>
+      <c r="W11" s="69"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="69"/>
+      <c r="Y11" s="68"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
       <c r="E12" s="35"/>
-      <c r="G12" s="54" t="s">
-        <v>62</v>
+      <c r="G12" s="53" t="s">
+        <v>60</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="83" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="54" t="s">
-        <v>62</v>
+      <c r="K12" s="53" t="s">
+        <v>60</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="84" t="s">
+      <c r="M12" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="O12" s="54"/>
+      <c r="O12" s="53"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="55"/>
-      <c r="S12" s="70"/>
+      <c r="Q12" s="54"/>
+      <c r="S12" s="69"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="69"/>
-      <c r="W12" s="70"/>
+      <c r="U12" s="68"/>
+      <c r="W12" s="69"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="69"/>
+      <c r="Y12" s="68"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="23"/>
       <c r="D13" s="24"/>
       <c r="E13" s="35"/>
-      <c r="G13" s="54"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="84"/>
+      <c r="I13" s="83"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="54" t="s">
-        <v>63</v>
+      <c r="K13" s="53" t="s">
+        <v>61</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="54"/>
+      <c r="O13" s="53"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="84"/>
-      <c r="S13" s="70"/>
+      <c r="Q13" s="83"/>
+      <c r="S13" s="69"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="69"/>
-      <c r="W13" s="70"/>
+      <c r="U13" s="68"/>
+      <c r="W13" s="69"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="69"/>
+      <c r="Y13" s="68"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -4145,120 +4172,120 @@
       <c r="C14" s="23"/>
       <c r="D14" s="24"/>
       <c r="E14" s="35"/>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="51" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="84" t="s">
+      <c r="I14" s="83" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="85"/>
+      <c r="K14" s="84"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="84"/>
-      <c r="O14" s="85" t="s">
+      <c r="M14" s="83"/>
+      <c r="O14" s="84" t="s">
         <v>11</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q14" s="84" t="s">
+      <c r="Q14" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="S14" s="70"/>
+      <c r="S14" s="69"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="69"/>
-      <c r="W14" s="70"/>
+      <c r="U14" s="68"/>
+      <c r="W14" s="69"/>
       <c r="X14" s="5"/>
-      <c r="Y14" s="69"/>
-    </row>
-    <row r="15" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y14" s="68"/>
+    </row>
+    <row r="15" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="G15" s="56" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="G15" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="84" t="s">
+      <c r="H15" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="45"/>
-      <c r="K15" s="56" t="s">
+      <c r="J15" s="44"/>
+      <c r="K15" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="M15" s="84" t="s">
+      <c r="L15" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="56" t="s">
+      <c r="O15" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="P15" s="46" t="s">
+      <c r="P15" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="Q15" s="84" t="s">
+      <c r="Q15" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="S15" s="71"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="72"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="72"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="71"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="71"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="39" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="23"/>
       <c r="D16" s="24"/>
       <c r="E16" s="35"/>
-      <c r="G16" s="57" t="s">
+      <c r="G16" s="56" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="83" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="57" t="s">
+      <c r="K16" s="56" t="s">
         <v>7</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="M16" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="57" t="s">
+      <c r="O16" s="56" t="s">
         <v>7</v>
       </c>
       <c r="P16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q16" s="84" t="s">
+      <c r="Q16" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="S16" s="70"/>
+      <c r="S16" s="69"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="69"/>
-      <c r="W16" s="70"/>
+      <c r="U16" s="68"/>
+      <c r="W16" s="69"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="69"/>
+      <c r="Y16" s="68"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -4268,126 +4295,126 @@
       <c r="C17" s="23"/>
       <c r="D17" s="24"/>
       <c r="E17" s="35"/>
-      <c r="G17" s="54" t="s">
+      <c r="G17" s="53" t="s">
         <v>8</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="83" t="s">
         <v>19</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="54" t="s">
+      <c r="K17" s="53" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M17" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="54" t="s">
+      <c r="O17" s="53" t="s">
         <v>8</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q17" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q17" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="S17" s="70"/>
+      <c r="S17" s="69"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="69"/>
-      <c r="W17" s="70"/>
+      <c r="U17" s="68"/>
+      <c r="W17" s="69"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="69"/>
+      <c r="Y17" s="68"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="23"/>
       <c r="D18" s="24"/>
       <c r="E18" s="35"/>
-      <c r="G18" s="54" t="s">
-        <v>67</v>
+      <c r="G18" s="53" t="s">
+        <v>65</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="83" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="54" t="s">
-        <v>67</v>
+      <c r="K18" s="53" t="s">
+        <v>65</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M18" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="O18" s="54" t="s">
-        <v>67</v>
+      <c r="O18" s="53" t="s">
+        <v>65</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q18" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="S18" s="70"/>
+      <c r="S18" s="69"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="69"/>
-      <c r="W18" s="70"/>
+      <c r="U18" s="68"/>
+      <c r="W18" s="69"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="69"/>
+      <c r="Y18" s="68"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="23"/>
       <c r="D19" s="24"/>
       <c r="E19" s="35"/>
-      <c r="G19" s="54" t="s">
-        <v>65</v>
+      <c r="G19" s="53" t="s">
+        <v>63</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="83" t="s">
         <v>18</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="54" t="s">
-        <v>65</v>
+      <c r="K19" s="53" t="s">
+        <v>63</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="M19" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="M19" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="54" t="s">
-        <v>65</v>
+      <c r="O19" s="53" t="s">
+        <v>63</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q19" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="S19" s="70"/>
+      <c r="S19" s="69"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="69"/>
-      <c r="W19" s="70"/>
+      <c r="U19" s="68"/>
+      <c r="W19" s="69"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="69"/>
+      <c r="Y19" s="68"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -4397,77 +4424,77 @@
       <c r="C20" s="23"/>
       <c r="D20" s="24"/>
       <c r="E20" s="35"/>
-      <c r="G20" s="54" t="s">
+      <c r="G20" s="53" t="s">
         <v>9</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="83" t="s">
         <v>18</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="54" t="s">
+      <c r="K20" s="53" t="s">
         <v>9</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="84" t="s">
+      <c r="M20" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="O20" s="54" t="s">
+      <c r="O20" s="53" t="s">
         <v>9</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q20" s="55" t="s">
+      <c r="Q20" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="S20" s="70"/>
+      <c r="S20" s="69"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="69"/>
-      <c r="W20" s="70"/>
+      <c r="U20" s="68"/>
+      <c r="W20" s="69"/>
       <c r="X20" s="5"/>
-      <c r="Y20" s="69"/>
-    </row>
-    <row r="21" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y20" s="68"/>
+    </row>
+    <row r="21" spans="1:25" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
-      <c r="G21" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="G21" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="45"/>
-      <c r="K21" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="L21" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="M21" s="84" t="s">
+      <c r="J21" s="44"/>
+      <c r="K21" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="O21" s="56"/>
-      <c r="P21" s="46"/>
-      <c r="Q21" s="84"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="72"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="72"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="83"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="71"/>
+      <c r="W21" s="70"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="71"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -4477,28 +4504,28 @@
       <c r="C22" s="23"/>
       <c r="D22" s="24"/>
       <c r="E22" s="35"/>
-      <c r="G22" s="54"/>
+      <c r="G22" s="53"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="84"/>
+      <c r="I22" s="83"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="86" t="s">
+      <c r="K22" s="85" t="s">
         <v>2</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M22" s="84" t="s">
+      <c r="M22" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="O22" s="54"/>
+      <c r="O22" s="53"/>
       <c r="P22" s="5"/>
-      <c r="Q22" s="55"/>
-      <c r="S22" s="70"/>
+      <c r="Q22" s="54"/>
+      <c r="S22" s="69"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="69"/>
-      <c r="W22" s="70"/>
+      <c r="U22" s="68"/>
+      <c r="W22" s="69"/>
       <c r="X22" s="5"/>
-      <c r="Y22" s="69"/>
+      <c r="Y22" s="68"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -4508,34 +4535,34 @@
       <c r="C23" s="23"/>
       <c r="D23" s="24"/>
       <c r="E23" s="35"/>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="51" t="s">
         <v>1</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I23" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="83" t="s">
         <v>18</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="52" t="s">
+      <c r="K23" s="51" t="s">
         <v>1</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M23" s="53" t="s">
+      <c r="M23" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="O23" s="52"/>
+      <c r="O23" s="51"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="84"/>
-      <c r="S23" s="66"/>
+      <c r="Q23" s="83"/>
+      <c r="S23" s="65"/>
       <c r="T23" s="6"/>
-      <c r="U23" s="67"/>
-      <c r="W23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="W23" s="65"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="67"/>
+      <c r="Y23" s="66"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -4545,214 +4572,214 @@
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
       <c r="E24" s="35"/>
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="51" t="s">
         <v>0</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="52"/>
+      <c r="K24" s="51"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="53"/>
-      <c r="O24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="O24" s="51"/>
       <c r="P24" s="6"/>
-      <c r="Q24" s="53"/>
-      <c r="S24" s="66"/>
+      <c r="Q24" s="52"/>
+      <c r="S24" s="65"/>
       <c r="T24" s="6"/>
-      <c r="U24" s="67"/>
-      <c r="W24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="W24" s="65"/>
       <c r="X24" s="6"/>
-      <c r="Y24" s="67"/>
+      <c r="Y24" s="66"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B25" s="18"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
-      <c r="G25" s="52" t="s">
-        <v>68</v>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
+      <c r="G25" s="51" t="s">
+        <v>66</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="52" t="s">
         <v>19</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="52"/>
+      <c r="K25" s="51"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="53"/>
-      <c r="O25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="O25" s="51"/>
       <c r="P25" s="6"/>
-      <c r="Q25" s="53"/>
-      <c r="S25" s="66"/>
+      <c r="Q25" s="52"/>
+      <c r="S25" s="65"/>
       <c r="T25" s="6"/>
-      <c r="U25" s="67"/>
-      <c r="W25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="W25" s="65"/>
       <c r="X25" s="6"/>
-      <c r="Y25" s="67"/>
+      <c r="Y25" s="66"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="89"/>
-      <c r="G26" s="52" t="s">
-        <v>66</v>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="G26" s="51" t="s">
+        <v>64</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="52" t="s">
         <v>19</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="52"/>
+      <c r="K26" s="51"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="53"/>
-      <c r="O26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="O26" s="51"/>
       <c r="P26" s="6"/>
-      <c r="Q26" s="53"/>
-      <c r="S26" s="66"/>
+      <c r="Q26" s="52"/>
+      <c r="S26" s="65"/>
       <c r="T26" s="6"/>
-      <c r="U26" s="67"/>
-      <c r="W26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="W26" s="65"/>
       <c r="X26" s="6"/>
-      <c r="Y26" s="67"/>
+      <c r="Y26" s="66"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B27" s="18"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
-      <c r="G27" s="52" t="s">
-        <v>69</v>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="88"/>
+      <c r="G27" s="51" t="s">
+        <v>67</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="52" t="s">
         <v>19</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="52"/>
+      <c r="K27" s="51"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="53"/>
-      <c r="O27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="O27" s="51"/>
       <c r="P27" s="6"/>
-      <c r="Q27" s="53"/>
-      <c r="S27" s="66"/>
+      <c r="Q27" s="52"/>
+      <c r="S27" s="65"/>
       <c r="T27" s="6"/>
-      <c r="U27" s="67"/>
-      <c r="W27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="W27" s="65"/>
       <c r="X27" s="6"/>
-      <c r="Y27" s="67"/>
+      <c r="Y27" s="66"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
+      <c r="G28" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89"/>
-      <c r="G28" s="52" t="s">
-        <v>33</v>
-      </c>
       <c r="H28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="52" t="s">
         <v>19</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="52"/>
+      <c r="K28" s="51"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="53"/>
-      <c r="O28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="O28" s="51"/>
       <c r="P28" s="6"/>
-      <c r="Q28" s="53"/>
-      <c r="S28" s="66"/>
+      <c r="Q28" s="52"/>
+      <c r="S28" s="65"/>
       <c r="T28" s="6"/>
-      <c r="U28" s="67"/>
-      <c r="W28" s="66"/>
+      <c r="U28" s="66"/>
+      <c r="W28" s="65"/>
       <c r="X28" s="6"/>
-      <c r="Y28" s="67"/>
+      <c r="Y28" s="66"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" s="18"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
-      <c r="G29" s="52" t="s">
-        <v>50</v>
+      <c r="C29" s="86"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="88"/>
+      <c r="G29" s="51" t="s">
+        <v>48</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="97"/>
-      <c r="M29" s="99"/>
-      <c r="O29" s="98"/>
-      <c r="P29" s="97"/>
-      <c r="Q29" s="99"/>
-      <c r="S29" s="66"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="96"/>
+      <c r="M29" s="98"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="98"/>
+      <c r="S29" s="65"/>
       <c r="T29" s="6"/>
-      <c r="U29" s="67"/>
-      <c r="W29" s="66"/>
+      <c r="U29" s="66"/>
+      <c r="W29" s="65"/>
       <c r="X29" s="6"/>
-      <c r="Y29" s="67"/>
+      <c r="Y29" s="66"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30" s="18"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="89"/>
-      <c r="G30" s="52"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="88"/>
+      <c r="G30" s="51"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="53"/>
+      <c r="I30" s="52"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="52"/>
+      <c r="K30" s="51"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="53"/>
-      <c r="O30" s="52" t="s">
-        <v>71</v>
+      <c r="M30" s="52"/>
+      <c r="O30" s="51" t="s">
+        <v>69</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q30" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q30" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="S30" s="66"/>
+      <c r="S30" s="65"/>
       <c r="T30" s="6"/>
-      <c r="U30" s="67"/>
-      <c r="W30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="W30" s="65"/>
       <c r="X30" s="6"/>
-      <c r="Y30" s="67"/>
+      <c r="Y30" s="66"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
@@ -4760,22 +4787,22 @@
       <c r="C31" s="25"/>
       <c r="D31" s="26"/>
       <c r="E31" s="36"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="60"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="59"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="60"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="60"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="74"/>
-      <c r="U31" s="75"/>
-      <c r="W31" s="73"/>
-      <c r="X31" s="74"/>
-      <c r="Y31" s="75"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="59"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="59"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="74"/>
+      <c r="W31" s="72"/>
+      <c r="X31" s="73"/>
+      <c r="Y31" s="74"/>
     </row>
     <row r="32" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G32" s="8"/>
@@ -4788,718 +4815,718 @@
       <c r="O32" s="8"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="9"/>
-      <c r="S32" s="61"/>
+      <c r="S32" s="60"/>
       <c r="T32" s="2"/>
-      <c r="U32" s="62"/>
+      <c r="U32" s="61"/>
       <c r="W32" s="8"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="9"/>
     </row>
     <row r="33" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="149" t="s">
+      <c r="A33" s="148" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="G33" s="154" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="155"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="154" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="155"/>
+      <c r="M33" s="156"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="157" t="s">
+        <v>85</v>
+      </c>
+      <c r="P33" s="158"/>
+      <c r="Q33" s="159"/>
+      <c r="R33" s="101"/>
+      <c r="S33" s="160" t="s">
+        <v>109</v>
+      </c>
+      <c r="T33" s="161"/>
+      <c r="U33" s="162"/>
+      <c r="V33" s="101"/>
+      <c r="W33" s="160" t="s">
+        <v>109</v>
+      </c>
+      <c r="X33" s="161"/>
+      <c r="Y33" s="162"/>
+    </row>
+    <row r="34" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="G33" s="166" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" s="167"/>
-      <c r="I33" s="168"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="166" t="s">
-        <v>30</v>
-      </c>
-      <c r="L33" s="167"/>
-      <c r="M33" s="168"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="169" t="s">
-        <v>87</v>
-      </c>
-      <c r="P33" s="170"/>
-      <c r="Q33" s="171"/>
-      <c r="R33" s="102"/>
-      <c r="S33" s="172" t="s">
-        <v>108</v>
-      </c>
-      <c r="T33" s="173"/>
-      <c r="U33" s="174"/>
-      <c r="V33" s="102"/>
-      <c r="W33" s="172" t="s">
-        <v>108</v>
-      </c>
-      <c r="X33" s="173"/>
-      <c r="Y33" s="174"/>
-    </row>
-    <row r="34" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="103" t="s">
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="152" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="142" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="138" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="143" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="142" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="138" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" s="143" t="s">
+        <v>13</v>
+      </c>
+      <c r="O34" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="P34" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q34" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="S34" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="T34" s="106" t="s">
+        <v>15</v>
+      </c>
+      <c r="U34" s="107" t="s">
+        <v>13</v>
+      </c>
+      <c r="W34" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="X34" s="106" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y34" s="107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="104" t="s">
+      <c r="B35" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="175" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="143" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="144" t="s">
-        <v>13</v>
-      </c>
-      <c r="K34" s="143" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="M34" s="144" t="s">
-        <v>13</v>
-      </c>
-      <c r="O34" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="P34" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q34" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="S34" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="T34" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="U34" s="108" t="s">
-        <v>13</v>
-      </c>
-      <c r="W34" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="X34" s="107" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y34" s="108" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="109" t="s">
+      <c r="C35" s="110"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="111" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="110" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="111"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="112" t="s">
-        <v>96</v>
-      </c>
-      <c r="G35" s="52"/>
+      <c r="G35" s="51"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="55"/>
-      <c r="K35" s="52"/>
+      <c r="I35" s="54"/>
+      <c r="K35" s="51"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="55"/>
-      <c r="O35" s="52"/>
+      <c r="M35" s="54"/>
+      <c r="O35" s="51"/>
       <c r="P35" s="6"/>
-      <c r="Q35" s="55"/>
-      <c r="S35" s="113"/>
+      <c r="Q35" s="54"/>
+      <c r="S35" s="112"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="114"/>
-      <c r="W35" s="113"/>
+      <c r="U35" s="113"/>
+      <c r="W35" s="112"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="114"/>
+      <c r="Y35" s="113"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="115"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="112"/>
-      <c r="G36" s="52"/>
+        <v>95</v>
+      </c>
+      <c r="B36" s="114"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="111"/>
+      <c r="G36" s="51"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="55"/>
-      <c r="K36" s="52"/>
+      <c r="I36" s="54"/>
+      <c r="K36" s="51"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="55"/>
-      <c r="O36" s="52"/>
+      <c r="M36" s="54"/>
+      <c r="O36" s="51"/>
       <c r="P36" s="6"/>
-      <c r="Q36" s="55"/>
-      <c r="S36" s="113"/>
+      <c r="Q36" s="54"/>
+      <c r="S36" s="112"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="114"/>
-      <c r="W36" s="113"/>
+      <c r="U36" s="113"/>
+      <c r="W36" s="112"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="114"/>
+      <c r="Y36" s="113"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B37" s="117"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="119"/>
-      <c r="G37" s="52"/>
+        <v>96</v>
+      </c>
+      <c r="B37" s="116"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="118"/>
+      <c r="G37" s="51"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="55"/>
-      <c r="K37" s="52"/>
+      <c r="I37" s="54"/>
+      <c r="K37" s="51"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="55"/>
-      <c r="O37" s="52"/>
+      <c r="M37" s="54"/>
+      <c r="O37" s="51"/>
       <c r="P37" s="6"/>
-      <c r="Q37" s="55"/>
-      <c r="S37" s="113"/>
+      <c r="Q37" s="54"/>
+      <c r="S37" s="112"/>
       <c r="T37" s="5"/>
-      <c r="U37" s="114"/>
-      <c r="W37" s="113"/>
+      <c r="U37" s="113"/>
+      <c r="W37" s="112"/>
       <c r="X37" s="5"/>
-      <c r="Y37" s="114"/>
+      <c r="Y37" s="113"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="117"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="117"/>
-      <c r="E38" s="119"/>
-      <c r="G38" s="52"/>
+        <v>97</v>
+      </c>
+      <c r="B38" s="116"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="118"/>
+      <c r="G38" s="51"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="55"/>
-      <c r="K38" s="52"/>
+      <c r="I38" s="54"/>
+      <c r="K38" s="51"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="55"/>
-      <c r="O38" s="52"/>
+      <c r="M38" s="54"/>
+      <c r="O38" s="51"/>
       <c r="P38" s="6"/>
-      <c r="Q38" s="55"/>
-      <c r="S38" s="113"/>
+      <c r="Q38" s="54"/>
+      <c r="S38" s="112"/>
       <c r="T38" s="5"/>
-      <c r="U38" s="114"/>
-      <c r="W38" s="113"/>
+      <c r="U38" s="113"/>
+      <c r="W38" s="112"/>
       <c r="X38" s="5"/>
-      <c r="Y38" s="114"/>
+      <c r="Y38" s="113"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="117"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="119"/>
-      <c r="G39" s="52"/>
+        <v>98</v>
+      </c>
+      <c r="B39" s="116"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="118"/>
+      <c r="G39" s="51"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="55"/>
-      <c r="K39" s="52"/>
+      <c r="I39" s="54"/>
+      <c r="K39" s="51"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="55"/>
-      <c r="O39" s="52"/>
+      <c r="M39" s="54"/>
+      <c r="O39" s="51"/>
       <c r="P39" s="6"/>
-      <c r="Q39" s="55"/>
-      <c r="S39" s="113"/>
+      <c r="Q39" s="54"/>
+      <c r="S39" s="112"/>
       <c r="T39" s="5"/>
-      <c r="U39" s="114"/>
-      <c r="W39" s="113"/>
+      <c r="U39" s="113"/>
+      <c r="W39" s="112"/>
       <c r="X39" s="5"/>
-      <c r="Y39" s="114"/>
+      <c r="Y39" s="113"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="117"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="119"/>
-      <c r="G40" s="52"/>
+        <v>99</v>
+      </c>
+      <c r="B40" s="116"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="118"/>
+      <c r="G40" s="51"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="55"/>
-      <c r="K40" s="52"/>
+      <c r="I40" s="54"/>
+      <c r="K40" s="51"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="55"/>
-      <c r="O40" s="52"/>
+      <c r="M40" s="54"/>
+      <c r="O40" s="51"/>
       <c r="P40" s="6"/>
-      <c r="Q40" s="55"/>
-      <c r="S40" s="113"/>
+      <c r="Q40" s="54"/>
+      <c r="S40" s="112"/>
       <c r="T40" s="5"/>
-      <c r="U40" s="114"/>
-      <c r="W40" s="113"/>
+      <c r="U40" s="113"/>
+      <c r="W40" s="112"/>
       <c r="X40" s="5"/>
-      <c r="Y40" s="114"/>
+      <c r="Y40" s="113"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="117"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="119"/>
-      <c r="G41" s="52"/>
+        <v>100</v>
+      </c>
+      <c r="B41" s="116"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="118"/>
+      <c r="G41" s="51"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="55"/>
-      <c r="K41" s="52"/>
+      <c r="I41" s="54"/>
+      <c r="K41" s="51"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="55"/>
-      <c r="O41" s="52"/>
+      <c r="M41" s="54"/>
+      <c r="O41" s="51"/>
       <c r="P41" s="6"/>
-      <c r="Q41" s="55"/>
-      <c r="S41" s="113"/>
+      <c r="Q41" s="54"/>
+      <c r="S41" s="112"/>
       <c r="T41" s="5"/>
-      <c r="U41" s="114"/>
-      <c r="W41" s="113"/>
+      <c r="U41" s="113"/>
+      <c r="W41" s="112"/>
       <c r="X41" s="5"/>
-      <c r="Y41" s="114"/>
+      <c r="Y41" s="113"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="117"/>
-      <c r="C42" s="118"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="119"/>
-      <c r="G42" s="52"/>
+        <v>101</v>
+      </c>
+      <c r="B42" s="116"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="118"/>
+      <c r="G42" s="51"/>
       <c r="H42" s="6"/>
-      <c r="I42" s="55"/>
-      <c r="K42" s="52"/>
+      <c r="I42" s="54"/>
+      <c r="K42" s="51"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="55"/>
-      <c r="O42" s="52"/>
+      <c r="M42" s="54"/>
+      <c r="O42" s="51"/>
       <c r="P42" s="6"/>
-      <c r="Q42" s="55"/>
-      <c r="S42" s="113"/>
+      <c r="Q42" s="54"/>
+      <c r="S42" s="112"/>
       <c r="T42" s="5"/>
-      <c r="U42" s="114"/>
-      <c r="W42" s="113"/>
+      <c r="U42" s="113"/>
+      <c r="W42" s="112"/>
       <c r="X42" s="5"/>
-      <c r="Y42" s="114"/>
+      <c r="Y42" s="113"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" s="117"/>
-      <c r="C43" s="118"/>
-      <c r="D43" s="117"/>
-      <c r="E43" s="119"/>
-      <c r="G43" s="52"/>
+        <v>102</v>
+      </c>
+      <c r="B43" s="116"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="118"/>
+      <c r="G43" s="51"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="55"/>
-      <c r="K43" s="52"/>
+      <c r="I43" s="54"/>
+      <c r="K43" s="51"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="55"/>
-      <c r="O43" s="52"/>
+      <c r="M43" s="54"/>
+      <c r="O43" s="51"/>
       <c r="P43" s="6"/>
-      <c r="Q43" s="55"/>
-      <c r="S43" s="113"/>
+      <c r="Q43" s="54"/>
+      <c r="S43" s="112"/>
       <c r="T43" s="5"/>
-      <c r="U43" s="114"/>
-      <c r="W43" s="113"/>
+      <c r="U43" s="113"/>
+      <c r="W43" s="112"/>
       <c r="X43" s="5"/>
-      <c r="Y43" s="114"/>
+      <c r="Y43" s="113"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="117"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="119"/>
-      <c r="G44" s="52"/>
+        <v>103</v>
+      </c>
+      <c r="B44" s="116"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="118"/>
+      <c r="G44" s="51"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="55"/>
-      <c r="K44" s="52"/>
+      <c r="I44" s="54"/>
+      <c r="K44" s="51"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="55"/>
-      <c r="O44" s="52"/>
+      <c r="M44" s="54"/>
+      <c r="O44" s="51"/>
       <c r="P44" s="6"/>
-      <c r="Q44" s="55"/>
-      <c r="S44" s="113"/>
+      <c r="Q44" s="54"/>
+      <c r="S44" s="112"/>
       <c r="T44" s="5"/>
-      <c r="U44" s="114"/>
-      <c r="W44" s="113"/>
+      <c r="U44" s="113"/>
+      <c r="W44" s="112"/>
       <c r="X44" s="5"/>
-      <c r="Y44" s="114"/>
+      <c r="Y44" s="113"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45" s="120"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="122"/>
-      <c r="G45" s="52"/>
+        <v>104</v>
+      </c>
+      <c r="B45" s="119"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="121"/>
+      <c r="G45" s="51"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="53"/>
-      <c r="K45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="K45" s="51"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="53"/>
-      <c r="O45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="O45" s="51"/>
       <c r="P45" s="6"/>
-      <c r="Q45" s="53"/>
-      <c r="S45" s="123"/>
+      <c r="Q45" s="52"/>
+      <c r="S45" s="122"/>
       <c r="T45" s="6"/>
-      <c r="U45" s="124"/>
-      <c r="W45" s="123"/>
+      <c r="U45" s="123"/>
+      <c r="W45" s="122"/>
       <c r="X45" s="6"/>
-      <c r="Y45" s="124"/>
+      <c r="Y45" s="123"/>
     </row>
     <row r="46" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
-      <c r="B46" s="120"/>
-      <c r="C46" s="121"/>
-      <c r="D46" s="120"/>
-      <c r="E46" s="122"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="60"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="60"/>
-      <c r="O46" s="58"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="60"/>
-      <c r="S46" s="128"/>
-      <c r="T46" s="129"/>
-      <c r="U46" s="130"/>
-      <c r="W46" s="128"/>
-      <c r="X46" s="129"/>
-      <c r="Y46" s="130"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="121"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="59"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="59"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="58"/>
+      <c r="Q46" s="59"/>
+      <c r="S46" s="127"/>
+      <c r="T46" s="128"/>
+      <c r="U46" s="129"/>
+      <c r="W46" s="127"/>
+      <c r="X46" s="128"/>
+      <c r="Y46" s="129"/>
     </row>
     <row r="47" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="131" t="s">
-        <v>107</v>
-      </c>
-      <c r="B47" s="150" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="151"/>
-      <c r="D47" s="151"/>
-      <c r="E47" s="176" t="s">
+      <c r="A47" s="130" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="149" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="150"/>
+      <c r="D47" s="150"/>
+      <c r="E47" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="G47" s="145" t="s">
+      <c r="G47" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="146" t="s">
+      <c r="H47" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="I47" s="147" t="s">
+      <c r="I47" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="K47" s="49" t="s">
+      <c r="K47" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="L47" s="50" t="s">
+      <c r="L47" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="M47" s="51" t="s">
+      <c r="M47" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="O47" s="145" t="s">
+      <c r="O47" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="P47" s="146" t="s">
+      <c r="P47" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="Q47" s="147" t="s">
+      <c r="Q47" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="S47" s="132" t="s">
+      <c r="S47" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="T47" s="133" t="s">
+      <c r="T47" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="U47" s="134" t="s">
+      <c r="U47" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="W47" s="132" t="s">
+      <c r="W47" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="X47" s="133" t="s">
+      <c r="X47" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="Y47" s="134" t="s">
+      <c r="Y47" s="133" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="110"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="112"/>
-      <c r="G48" s="140"/>
-      <c r="H48" s="141"/>
-      <c r="I48" s="142"/>
-      <c r="K48" s="54"/>
+      <c r="A48" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="109"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="111"/>
+      <c r="G48" s="139"/>
+      <c r="H48" s="140"/>
+      <c r="I48" s="141"/>
+      <c r="K48" s="53"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="55"/>
-      <c r="O48" s="140"/>
-      <c r="P48" s="141"/>
-      <c r="Q48" s="142"/>
-      <c r="S48" s="135"/>
-      <c r="T48" s="136"/>
-      <c r="U48" s="137"/>
-      <c r="W48" s="135"/>
-      <c r="X48" s="136"/>
-      <c r="Y48" s="137"/>
+      <c r="M48" s="54"/>
+      <c r="O48" s="139"/>
+      <c r="P48" s="140"/>
+      <c r="Q48" s="141"/>
+      <c r="S48" s="134"/>
+      <c r="T48" s="135"/>
+      <c r="U48" s="136"/>
+      <c r="W48" s="134"/>
+      <c r="X48" s="135"/>
+      <c r="Y48" s="136"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="117"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="117"/>
-      <c r="E49" s="119"/>
-      <c r="G49" s="54"/>
+        <v>96</v>
+      </c>
+      <c r="B49" s="116"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="118"/>
+      <c r="G49" s="53"/>
       <c r="H49" s="5"/>
-      <c r="I49" s="55"/>
-      <c r="K49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="K49" s="53"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="55"/>
-      <c r="O49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="O49" s="53"/>
       <c r="P49" s="5"/>
-      <c r="Q49" s="55"/>
-      <c r="S49" s="113"/>
+      <c r="Q49" s="54"/>
+      <c r="S49" s="112"/>
       <c r="T49" s="5"/>
-      <c r="U49" s="114"/>
-      <c r="W49" s="113"/>
+      <c r="U49" s="113"/>
+      <c r="W49" s="112"/>
       <c r="X49" s="5"/>
-      <c r="Y49" s="114"/>
+      <c r="Y49" s="113"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="117"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="117"/>
-      <c r="E50" s="119"/>
-      <c r="G50" s="54"/>
+        <v>97</v>
+      </c>
+      <c r="B50" s="116"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="118"/>
+      <c r="G50" s="53"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="55"/>
-      <c r="K50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="K50" s="53"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="55"/>
-      <c r="O50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="O50" s="53"/>
       <c r="P50" s="5"/>
-      <c r="Q50" s="55"/>
-      <c r="S50" s="113"/>
+      <c r="Q50" s="54"/>
+      <c r="S50" s="112"/>
       <c r="T50" s="5"/>
-      <c r="U50" s="114"/>
-      <c r="W50" s="113"/>
+      <c r="U50" s="113"/>
+      <c r="W50" s="112"/>
       <c r="X50" s="5"/>
-      <c r="Y50" s="114"/>
+      <c r="Y50" s="113"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="117"/>
-      <c r="C51" s="118"/>
-      <c r="D51" s="117"/>
-      <c r="E51" s="119"/>
-      <c r="G51" s="54"/>
+        <v>98</v>
+      </c>
+      <c r="B51" s="116"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="118"/>
+      <c r="G51" s="53"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="55"/>
-      <c r="K51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="K51" s="53"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="55"/>
-      <c r="O51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="O51" s="53"/>
       <c r="P51" s="5"/>
-      <c r="Q51" s="55"/>
-      <c r="S51" s="113"/>
+      <c r="Q51" s="54"/>
+      <c r="S51" s="112"/>
       <c r="T51" s="5"/>
-      <c r="U51" s="114"/>
-      <c r="W51" s="113"/>
+      <c r="U51" s="113"/>
+      <c r="W51" s="112"/>
       <c r="X51" s="5"/>
-      <c r="Y51" s="114"/>
+      <c r="Y51" s="113"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" s="117"/>
-      <c r="C52" s="118"/>
-      <c r="D52" s="117"/>
-      <c r="E52" s="119"/>
-      <c r="G52" s="54"/>
+        <v>99</v>
+      </c>
+      <c r="B52" s="116"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="118"/>
+      <c r="G52" s="53"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="55"/>
-      <c r="K52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="K52" s="53"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="55"/>
-      <c r="O52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="O52" s="53"/>
       <c r="P52" s="5"/>
-      <c r="Q52" s="55"/>
-      <c r="S52" s="113"/>
+      <c r="Q52" s="54"/>
+      <c r="S52" s="112"/>
       <c r="T52" s="5"/>
-      <c r="U52" s="114"/>
-      <c r="W52" s="113"/>
+      <c r="U52" s="113"/>
+      <c r="W52" s="112"/>
       <c r="X52" s="5"/>
-      <c r="Y52" s="114"/>
+      <c r="Y52" s="113"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" s="117"/>
-      <c r="C53" s="118"/>
-      <c r="D53" s="117"/>
-      <c r="E53" s="119"/>
-      <c r="G53" s="54"/>
+        <v>100</v>
+      </c>
+      <c r="B53" s="116"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="118"/>
+      <c r="G53" s="53"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="55"/>
-      <c r="K53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="K53" s="53"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="55"/>
-      <c r="O53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="O53" s="53"/>
       <c r="P53" s="5"/>
-      <c r="Q53" s="55"/>
-      <c r="S53" s="113"/>
+      <c r="Q53" s="54"/>
+      <c r="S53" s="112"/>
       <c r="T53" s="5"/>
-      <c r="U53" s="114"/>
-      <c r="W53" s="113"/>
+      <c r="U53" s="113"/>
+      <c r="W53" s="112"/>
       <c r="X53" s="5"/>
-      <c r="Y53" s="114"/>
+      <c r="Y53" s="113"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B54" s="117"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="117"/>
-      <c r="E54" s="119"/>
-      <c r="G54" s="54"/>
+        <v>101</v>
+      </c>
+      <c r="B54" s="116"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="118"/>
+      <c r="G54" s="53"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="55"/>
-      <c r="K54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="K54" s="53"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="55"/>
-      <c r="O54" s="54"/>
+      <c r="M54" s="54"/>
+      <c r="O54" s="53"/>
       <c r="P54" s="5"/>
-      <c r="Q54" s="55"/>
-      <c r="S54" s="113"/>
+      <c r="Q54" s="54"/>
+      <c r="S54" s="112"/>
       <c r="T54" s="5"/>
-      <c r="U54" s="114"/>
-      <c r="W54" s="113"/>
+      <c r="U54" s="113"/>
+      <c r="W54" s="112"/>
       <c r="X54" s="5"/>
-      <c r="Y54" s="114"/>
+      <c r="Y54" s="113"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B55" s="117"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="117"/>
-      <c r="E55" s="119"/>
-      <c r="G55" s="54"/>
+        <v>102</v>
+      </c>
+      <c r="B55" s="116"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="118"/>
+      <c r="G55" s="53"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="55"/>
-      <c r="K55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="K55" s="53"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="55"/>
-      <c r="O55" s="54"/>
+      <c r="M55" s="54"/>
+      <c r="O55" s="53"/>
       <c r="P55" s="5"/>
-      <c r="Q55" s="55"/>
-      <c r="S55" s="113"/>
+      <c r="Q55" s="54"/>
+      <c r="S55" s="112"/>
       <c r="T55" s="5"/>
-      <c r="U55" s="114"/>
-      <c r="W55" s="113"/>
+      <c r="U55" s="113"/>
+      <c r="W55" s="112"/>
       <c r="X55" s="5"/>
-      <c r="Y55" s="114"/>
+      <c r="Y55" s="113"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="117"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="117"/>
-      <c r="E56" s="119"/>
-      <c r="G56" s="54"/>
+        <v>103</v>
+      </c>
+      <c r="B56" s="116"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="118"/>
+      <c r="G56" s="53"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="55"/>
-      <c r="K56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="K56" s="53"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="55"/>
-      <c r="O56" s="54"/>
+      <c r="M56" s="54"/>
+      <c r="O56" s="53"/>
       <c r="P56" s="5"/>
-      <c r="Q56" s="55"/>
-      <c r="S56" s="113"/>
+      <c r="Q56" s="54"/>
+      <c r="S56" s="112"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="114"/>
-      <c r="W56" s="113"/>
+      <c r="U56" s="113"/>
+      <c r="W56" s="112"/>
       <c r="X56" s="5"/>
-      <c r="Y56" s="114"/>
+      <c r="Y56" s="113"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" s="120"/>
-      <c r="C57" s="121"/>
-      <c r="D57" s="120"/>
-      <c r="E57" s="122"/>
-      <c r="G57" s="52"/>
+        <v>104</v>
+      </c>
+      <c r="B57" s="119"/>
+      <c r="C57" s="120"/>
+      <c r="D57" s="119"/>
+      <c r="E57" s="121"/>
+      <c r="G57" s="51"/>
       <c r="H57" s="6"/>
-      <c r="I57" s="53"/>
-      <c r="K57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="K57" s="51"/>
       <c r="L57" s="6"/>
-      <c r="M57" s="53"/>
-      <c r="O57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="O57" s="51"/>
       <c r="P57" s="6"/>
-      <c r="Q57" s="53"/>
-      <c r="S57" s="123"/>
+      <c r="Q57" s="52"/>
+      <c r="S57" s="122"/>
       <c r="T57" s="6"/>
-      <c r="U57" s="124"/>
-      <c r="W57" s="123"/>
+      <c r="U57" s="123"/>
+      <c r="W57" s="122"/>
       <c r="X57" s="6"/>
-      <c r="Y57" s="124"/>
+      <c r="Y57" s="123"/>
     </row>
     <row r="58" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="138"/>
-      <c r="B58" s="125"/>
-      <c r="C58" s="126"/>
-      <c r="D58" s="125"/>
-      <c r="E58" s="127"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="60"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="59"/>
-      <c r="M58" s="60"/>
-      <c r="O58" s="58"/>
-      <c r="P58" s="59"/>
-      <c r="Q58" s="60"/>
-      <c r="S58" s="128"/>
-      <c r="T58" s="129"/>
-      <c r="U58" s="130"/>
-      <c r="W58" s="128"/>
-      <c r="X58" s="129"/>
-      <c r="Y58" s="130"/>
+      <c r="A58" s="137"/>
+      <c r="B58" s="124"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="124"/>
+      <c r="E58" s="126"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="59"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="58"/>
+      <c r="M58" s="59"/>
+      <c r="O58" s="57"/>
+      <c r="P58" s="58"/>
+      <c r="Q58" s="59"/>
+      <c r="S58" s="127"/>
+      <c r="T58" s="128"/>
+      <c r="U58" s="129"/>
+      <c r="W58" s="127"/>
+      <c r="X58" s="128"/>
+      <c r="Y58" s="129"/>
     </row>
     <row r="59" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G59" s="8"/>
@@ -5514,7 +5541,7 @@
       <c r="Y59" s="9"/>
     </row>
     <row r="60" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="152" t="s">
+      <c r="A60" s="151" t="s">
         <v>17</v>
       </c>
       <c r="B60" s="11" t="s">
@@ -5525,309 +5552,309 @@
       <c r="E60" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G60" s="49" t="s">
+      <c r="G60" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="50" t="s">
+      <c r="H60" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="I60" s="51" t="s">
+      <c r="I60" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="K60" s="49" t="s">
+      <c r="K60" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="L60" s="50" t="s">
+      <c r="L60" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="M60" s="51" t="s">
+      <c r="M60" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="O60" s="49" t="s">
+      <c r="O60" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="P60" s="50" t="s">
+      <c r="P60" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="Q60" s="51" t="s">
+      <c r="Q60" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="S60" s="77" t="s">
+      <c r="S60" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="T60" s="76" t="s">
+      <c r="T60" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="U60" s="78" t="s">
+      <c r="U60" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="W60" s="77" t="s">
+      <c r="W60" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="X60" s="76" t="s">
+      <c r="X60" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="Y60" s="78" t="s">
+      <c r="Y60" s="77" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="79" t="s">
+      <c r="A61" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="90"/>
+      <c r="D61" s="91"/>
+      <c r="E61" s="31"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="54"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="54"/>
+      <c r="O61" s="53"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="54"/>
+      <c r="S61" s="69"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="68"/>
+      <c r="W61" s="69"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="68"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A62" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="90" t="s">
+      <c r="B62" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="91"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="31"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="55"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="55"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="55"/>
-      <c r="S61" s="70"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="69"/>
-      <c r="W61" s="70"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="69"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="80" t="s">
+      <c r="C62" s="93"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="32"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="54"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="54"/>
+      <c r="O62" s="53"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="54"/>
+      <c r="S62" s="69"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="68"/>
+      <c r="W62" s="69"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="68"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A63" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="93" t="s">
+      <c r="B63" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="94"/>
-      <c r="D62" s="95"/>
-      <c r="E62" s="32"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="55"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="55"/>
-      <c r="O62" s="54"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="55"/>
-      <c r="S62" s="70"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="69"/>
-      <c r="W62" s="70"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="69"/>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A63" s="80" t="s">
+      <c r="C63" s="93"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="32"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="54"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="54"/>
+      <c r="O63" s="53"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="54"/>
+      <c r="S63" s="69"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="68"/>
+      <c r="W63" s="69"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="68"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A64" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="93" t="s">
+      <c r="B64" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="94"/>
-      <c r="D63" s="95"/>
-      <c r="E63" s="32"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="55"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="55"/>
-      <c r="O63" s="54"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="55"/>
-      <c r="S63" s="70"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="69"/>
-      <c r="W63" s="70"/>
-      <c r="X63" s="5"/>
-      <c r="Y63" s="69"/>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="93" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="94"/>
-      <c r="D64" s="95"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="94"/>
       <c r="E64" s="32"/>
-      <c r="G64" s="54"/>
+      <c r="G64" s="53"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="55"/>
-      <c r="K64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="K64" s="53"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="55"/>
-      <c r="O64" s="54"/>
+      <c r="M64" s="54"/>
+      <c r="O64" s="53"/>
       <c r="P64" s="5"/>
-      <c r="Q64" s="55"/>
-      <c r="S64" s="70"/>
+      <c r="Q64" s="54"/>
+      <c r="S64" s="69"/>
       <c r="T64" s="5"/>
-      <c r="U64" s="69"/>
-      <c r="W64" s="70"/>
+      <c r="U64" s="68"/>
+      <c r="W64" s="69"/>
       <c r="X64" s="5"/>
-      <c r="Y64" s="69"/>
+      <c r="Y64" s="68"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A65" s="80"/>
-      <c r="B65" s="93"/>
-      <c r="C65" s="94"/>
-      <c r="D65" s="95"/>
+      <c r="A65" s="79"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="93"/>
+      <c r="D65" s="94"/>
       <c r="E65" s="32"/>
-      <c r="G65" s="54"/>
+      <c r="G65" s="53"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="55"/>
-      <c r="K65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="K65" s="53"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="55"/>
-      <c r="O65" s="54"/>
+      <c r="M65" s="54"/>
+      <c r="O65" s="53"/>
       <c r="P65" s="5"/>
-      <c r="Q65" s="55"/>
-      <c r="S65" s="70"/>
+      <c r="Q65" s="54"/>
+      <c r="S65" s="69"/>
       <c r="T65" s="5"/>
-      <c r="U65" s="69"/>
-      <c r="W65" s="70"/>
+      <c r="U65" s="68"/>
+      <c r="W65" s="69"/>
       <c r="X65" s="5"/>
-      <c r="Y65" s="69"/>
+      <c r="Y65" s="68"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A66" s="80"/>
-      <c r="B66" s="81"/>
-      <c r="C66" s="82"/>
-      <c r="D66" s="83"/>
+      <c r="A66" s="79"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="82"/>
       <c r="E66" s="32"/>
-      <c r="G66" s="54"/>
+      <c r="G66" s="53"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="55"/>
-      <c r="K66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="K66" s="53"/>
       <c r="L66" s="5"/>
-      <c r="M66" s="55"/>
-      <c r="O66" s="54"/>
+      <c r="M66" s="54"/>
+      <c r="O66" s="53"/>
       <c r="P66" s="5"/>
-      <c r="Q66" s="55"/>
-      <c r="S66" s="70"/>
+      <c r="Q66" s="54"/>
+      <c r="S66" s="69"/>
       <c r="T66" s="5"/>
-      <c r="U66" s="69"/>
-      <c r="W66" s="70"/>
+      <c r="U66" s="68"/>
+      <c r="W66" s="69"/>
       <c r="X66" s="5"/>
-      <c r="Y66" s="69"/>
+      <c r="Y66" s="68"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="27"/>
-      <c r="B67" s="153"/>
-      <c r="C67" s="154"/>
-      <c r="D67" s="155"/>
+      <c r="B67" s="170"/>
+      <c r="C67" s="171"/>
+      <c r="D67" s="172"/>
       <c r="E67" s="32"/>
-      <c r="G67" s="54"/>
+      <c r="G67" s="53"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="55"/>
-      <c r="K67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="K67" s="53"/>
       <c r="L67" s="5"/>
-      <c r="M67" s="55"/>
-      <c r="O67" s="54"/>
+      <c r="M67" s="54"/>
+      <c r="O67" s="53"/>
       <c r="P67" s="5"/>
-      <c r="Q67" s="55"/>
-      <c r="S67" s="70"/>
+      <c r="Q67" s="54"/>
+      <c r="S67" s="69"/>
       <c r="T67" s="5"/>
-      <c r="U67" s="69"/>
-      <c r="W67" s="70"/>
+      <c r="U67" s="68"/>
+      <c r="W67" s="69"/>
       <c r="X67" s="5"/>
-      <c r="Y67" s="69"/>
+      <c r="Y67" s="68"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="27"/>
-      <c r="B68" s="153"/>
-      <c r="C68" s="154"/>
-      <c r="D68" s="155"/>
+      <c r="B68" s="170"/>
+      <c r="C68" s="171"/>
+      <c r="D68" s="172"/>
       <c r="E68" s="32"/>
-      <c r="G68" s="54"/>
+      <c r="G68" s="53"/>
       <c r="H68" s="5"/>
-      <c r="I68" s="55"/>
-      <c r="K68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="K68" s="53"/>
       <c r="L68" s="5"/>
-      <c r="M68" s="55"/>
-      <c r="O68" s="54"/>
+      <c r="M68" s="54"/>
+      <c r="O68" s="53"/>
       <c r="P68" s="5"/>
-      <c r="Q68" s="55"/>
-      <c r="S68" s="70"/>
+      <c r="Q68" s="54"/>
+      <c r="S68" s="69"/>
       <c r="T68" s="5"/>
-      <c r="U68" s="69"/>
-      <c r="W68" s="70"/>
+      <c r="U68" s="68"/>
+      <c r="W68" s="69"/>
       <c r="X68" s="5"/>
-      <c r="Y68" s="69"/>
+      <c r="Y68" s="68"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="27"/>
-      <c r="B69" s="153"/>
-      <c r="C69" s="154"/>
-      <c r="D69" s="155"/>
+      <c r="B69" s="170"/>
+      <c r="C69" s="171"/>
+      <c r="D69" s="172"/>
       <c r="E69" s="32"/>
-      <c r="G69" s="54"/>
+      <c r="G69" s="53"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="55"/>
-      <c r="K69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="K69" s="53"/>
       <c r="L69" s="5"/>
-      <c r="M69" s="55"/>
-      <c r="O69" s="54"/>
+      <c r="M69" s="54"/>
+      <c r="O69" s="53"/>
       <c r="P69" s="5"/>
-      <c r="Q69" s="55"/>
-      <c r="S69" s="70"/>
+      <c r="Q69" s="54"/>
+      <c r="S69" s="69"/>
       <c r="T69" s="5"/>
-      <c r="U69" s="69"/>
-      <c r="W69" s="70"/>
+      <c r="U69" s="68"/>
+      <c r="W69" s="69"/>
       <c r="X69" s="5"/>
-      <c r="Y69" s="69"/>
+      <c r="Y69" s="68"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="27"/>
-      <c r="B70" s="153"/>
-      <c r="C70" s="154"/>
-      <c r="D70" s="155"/>
+      <c r="B70" s="170"/>
+      <c r="C70" s="171"/>
+      <c r="D70" s="172"/>
       <c r="E70" s="32"/>
-      <c r="G70" s="54"/>
+      <c r="G70" s="53"/>
       <c r="H70" s="5"/>
-      <c r="I70" s="55"/>
-      <c r="K70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="K70" s="53"/>
       <c r="L70" s="5"/>
-      <c r="M70" s="55"/>
-      <c r="O70" s="54"/>
+      <c r="M70" s="54"/>
+      <c r="O70" s="53"/>
       <c r="P70" s="5"/>
-      <c r="Q70" s="55"/>
-      <c r="S70" s="70"/>
+      <c r="Q70" s="54"/>
+      <c r="S70" s="69"/>
       <c r="T70" s="5"/>
-      <c r="U70" s="69"/>
-      <c r="W70" s="70"/>
+      <c r="U70" s="68"/>
+      <c r="W70" s="69"/>
       <c r="X70" s="5"/>
-      <c r="Y70" s="69"/>
+      <c r="Y70" s="68"/>
     </row>
     <row r="71" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="28"/>
-      <c r="B71" s="156"/>
-      <c r="C71" s="157"/>
-      <c r="D71" s="158"/>
+      <c r="B71" s="173"/>
+      <c r="C71" s="174"/>
+      <c r="D71" s="175"/>
       <c r="E71" s="33"/>
-      <c r="G71" s="58"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="60"/>
-      <c r="K71" s="58"/>
-      <c r="L71" s="59"/>
-      <c r="M71" s="60"/>
-      <c r="O71" s="58"/>
-      <c r="P71" s="59"/>
-      <c r="Q71" s="60"/>
-      <c r="S71" s="73"/>
-      <c r="T71" s="74"/>
-      <c r="U71" s="75"/>
-      <c r="W71" s="73"/>
-      <c r="X71" s="74"/>
-      <c r="Y71" s="75"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="59"/>
+      <c r="K71" s="57"/>
+      <c r="L71" s="58"/>
+      <c r="M71" s="59"/>
+      <c r="O71" s="57"/>
+      <c r="P71" s="58"/>
+      <c r="Q71" s="59"/>
+      <c r="S71" s="72"/>
+      <c r="T71" s="73"/>
+      <c r="U71" s="74"/>
+      <c r="W71" s="72"/>
+      <c r="X71" s="73"/>
+      <c r="Y71" s="74"/>
     </row>
     <row r="72" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -5847,21 +5874,21 @@
     <protectedRange sqref="N35:N46 J35:J46 R35:R46 A48:R58 A35:F46" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="K33:M33"/>
     <mergeCell ref="O33:Q33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A31:AG32 J8 B9:G29 I24:O29 I9:K23 M9:AG13 M14:O23 B8:F8 N8:AG8 B30:O30 P14:AG30 A11:A30">
@@ -6128,39 +6155,22 @@
       <formula>$D46="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I61:I71 Y61:Y71 U61:U71 Q61:Q71 M61:M71 Y7:Y31 M7:M31 Q7:Q31 U7:U31 I7:I31 Q48:Q58 I48:I58 M48:M58" xr:uid="{48717D9B-040D-47A7-B696-AE48B2CFBD90}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D31 C48:D58 C35:D46" xr:uid="{6D646658-16D3-43D0-865C-2CFC2017A5FB}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y35:Y46 Q35:Q46 M35:M46 I35:I46 U35:U46 U48:U58 Y48:Y58" xr:uid="{94BC40CD-AC66-4BCB-AF70-DF836A29E009}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I31 M7:M30 M31 Q7:Q32 U7:U31 Y7:Y31 I35:I46 M35:M46 Q35:Q46 U35:U46 Y35:Y46 I48:I58 M48:M58 Q48:Q58 U48:U58 Y48:Y58 I61:I71 M61:M70 M71 Q61:Q71 U61:U71 Y61:Y71" xr:uid="{3C240BF6-EC2E-497A-8B93-F82DACDC889F}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -6369,32 +6379,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6411,4 +6411,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_EN.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DFAD66-4D1C-46B4-95EE-46EEF5C4E464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CBFBFD-FDA2-48DB-BA24-DBB9EA8F8488}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8Dyaui/daSUT/hOvn8XBo2s24xlJVXslcs1WHSyLVowDjRkSWj4RV+pFVEsQSEKModckNG3YVppR/q0TwGchqw==" workbookSaltValue="ZPx5szgFR6cPwbArCr9dlg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="18630" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -2287,6 +2287,45 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2314,50 +2353,77 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="77">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3158,11 +3224,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="70"/>
-      <tableStyleElement type="headerRow" dxfId="69"/>
-      <tableStyleElement type="firstColumn" dxfId="68"/>
-      <tableStyleElement type="firstRowStripe" dxfId="67"/>
-      <tableStyleElement type="secondRowStripe" dxfId="66"/>
+      <tableStyleElement type="wholeTable" dxfId="76"/>
+      <tableStyleElement type="headerRow" dxfId="75"/>
+      <tableStyleElement type="firstColumn" dxfId="74"/>
+      <tableStyleElement type="firstRowStripe" dxfId="73"/>
+      <tableStyleElement type="secondRowStripe" dxfId="72"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3780,8 +3846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3841,32 +3907,32 @@
         <v>56</v>
       </c>
       <c r="E4" s="30"/>
-      <c r="G4" s="169" t="s">
+      <c r="G4" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="169"/>
-      <c r="I4" s="169"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="169" t="s">
+      <c r="K4" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="O4" s="169" t="s">
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="O4" s="166" t="s">
         <v>85</v>
       </c>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="169"/>
-      <c r="S4" s="163" t="s">
+      <c r="P4" s="166"/>
+      <c r="Q4" s="166"/>
+      <c r="S4" s="160" t="s">
         <v>108</v>
       </c>
-      <c r="T4" s="164"/>
-      <c r="U4" s="165"/>
-      <c r="W4" s="166" t="s">
+      <c r="T4" s="161"/>
+      <c r="U4" s="162"/>
+      <c r="W4" s="163" t="s">
         <v>110</v>
       </c>
-      <c r="X4" s="167"/>
-      <c r="Y4" s="168"/>
+      <c r="X4" s="164"/>
+      <c r="Y4" s="165"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4207,7 +4273,7 @@
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="43"/>
       <c r="G15" s="55" t="s">
         <v>6</v>
@@ -4830,35 +4896,35 @@
       <c r="C33" s="99"/>
       <c r="D33" s="99"/>
       <c r="E33" s="99"/>
-      <c r="G33" s="154" t="s">
+      <c r="G33" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="155"/>
-      <c r="I33" s="156"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="169"/>
       <c r="J33" s="100"/>
-      <c r="K33" s="154" t="s">
+      <c r="K33" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="L33" s="155"/>
-      <c r="M33" s="156"/>
+      <c r="L33" s="168"/>
+      <c r="M33" s="169"/>
       <c r="N33" s="100"/>
-      <c r="O33" s="157" t="s">
+      <c r="O33" s="170" t="s">
         <v>85</v>
       </c>
-      <c r="P33" s="158"/>
-      <c r="Q33" s="159"/>
+      <c r="P33" s="171"/>
+      <c r="Q33" s="172"/>
       <c r="R33" s="101"/>
-      <c r="S33" s="160" t="s">
+      <c r="S33" s="173" t="s">
         <v>109</v>
       </c>
-      <c r="T33" s="161"/>
-      <c r="U33" s="162"/>
+      <c r="T33" s="174"/>
+      <c r="U33" s="175"/>
       <c r="V33" s="101"/>
-      <c r="W33" s="160" t="s">
+      <c r="W33" s="173" t="s">
         <v>109</v>
       </c>
-      <c r="X33" s="161"/>
-      <c r="Y33" s="162"/>
+      <c r="X33" s="174"/>
+      <c r="Y33" s="175"/>
     </row>
     <row r="34" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="102" t="s">
@@ -5748,9 +5814,9 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="27"/>
-      <c r="B67" s="170"/>
-      <c r="C67" s="171"/>
-      <c r="D67" s="172"/>
+      <c r="B67" s="154"/>
+      <c r="C67" s="155"/>
+      <c r="D67" s="156"/>
       <c r="E67" s="32"/>
       <c r="G67" s="53"/>
       <c r="H67" s="5"/>
@@ -5770,9 +5836,9 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="27"/>
-      <c r="B68" s="170"/>
-      <c r="C68" s="171"/>
-      <c r="D68" s="172"/>
+      <c r="B68" s="154"/>
+      <c r="C68" s="155"/>
+      <c r="D68" s="156"/>
       <c r="E68" s="32"/>
       <c r="G68" s="53"/>
       <c r="H68" s="5"/>
@@ -5792,9 +5858,9 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="27"/>
-      <c r="B69" s="170"/>
-      <c r="C69" s="171"/>
-      <c r="D69" s="172"/>
+      <c r="B69" s="154"/>
+      <c r="C69" s="155"/>
+      <c r="D69" s="156"/>
       <c r="E69" s="32"/>
       <c r="G69" s="53"/>
       <c r="H69" s="5"/>
@@ -5814,9 +5880,9 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="27"/>
-      <c r="B70" s="170"/>
-      <c r="C70" s="171"/>
-      <c r="D70" s="172"/>
+      <c r="B70" s="154"/>
+      <c r="C70" s="155"/>
+      <c r="D70" s="156"/>
       <c r="E70" s="32"/>
       <c r="G70" s="53"/>
       <c r="H70" s="5"/>
@@ -5836,9 +5902,9 @@
     </row>
     <row r="71" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="28"/>
-      <c r="B71" s="173"/>
-      <c r="C71" s="174"/>
-      <c r="D71" s="175"/>
+      <c r="B71" s="157"/>
+      <c r="C71" s="158"/>
+      <c r="D71" s="159"/>
       <c r="E71" s="33"/>
       <c r="G71" s="57"/>
       <c r="H71" s="58"/>
@@ -5874,32 +5940,56 @@
     <protectedRange sqref="N35:N46 J35:J46 R35:R46 A48:R58 A35:F46" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="B71:D71"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="W33:Y33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A31:AG32 J8 B9:G29 I24:O29 I9:K23 M9:AG13 M14:O23 B8:F8 N8:AG8 B30:O30 P14:AG30 A11:A30">
-    <cfRule type="expression" dxfId="65" priority="73">
+  <conditionalFormatting sqref="A31:AG32 J8 I24:O29 I9:K23 M9:AG13 M14:O23 B8:F8 N8:AG8 B30:O30 P14:AG30 A11:A30 B9:G29">
+    <cfRule type="expression" dxfId="71" priority="79">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="74">
+    <cfRule type="expression" dxfId="70" priority="80">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W61:Y71">
+    <cfRule type="expression" dxfId="69" priority="77">
+      <formula>$C61="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="78">
+      <formula>$D61="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S61:U71">
+    <cfRule type="expression" dxfId="67" priority="75">
+      <formula>$C61="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="76">
+      <formula>$D61="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O61:Q71">
+    <cfRule type="expression" dxfId="65" priority="73">
+      <formula>$C61="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="74">
+      <formula>$D61="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K61:M71">
     <cfRule type="expression" dxfId="63" priority="71">
       <formula>$C61="x"</formula>
     </cfRule>
@@ -5907,7 +5997,7 @@
       <formula>$D61="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S61:U71">
+  <conditionalFormatting sqref="G61:I71">
     <cfRule type="expression" dxfId="61" priority="69">
       <formula>$C61="x"</formula>
     </cfRule>
@@ -5915,103 +6005,103 @@
       <formula>$D61="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O61:Q71">
-    <cfRule type="expression" dxfId="59" priority="67">
-      <formula>$C61="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="68">
-      <formula>$D61="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K61:M71">
-    <cfRule type="expression" dxfId="57" priority="65">
-      <formula>$C61="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="66">
-      <formula>$D61="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G61:I71">
-    <cfRule type="expression" dxfId="55" priority="63">
-      <formula>$C61="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="64">
-      <formula>$D61="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H9 H11:H29">
-    <cfRule type="expression" dxfId="53" priority="55">
+    <cfRule type="expression" dxfId="59" priority="61">
       <formula>$C9="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="56">
+    <cfRule type="expression" dxfId="58" priority="62">
       <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:L23">
-    <cfRule type="expression" dxfId="51" priority="53">
+    <cfRule type="expression" dxfId="57" priority="59">
       <formula>$C9="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="54">
+    <cfRule type="expression" dxfId="56" priority="60">
       <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:M8">
-    <cfRule type="expression" dxfId="49" priority="49">
+    <cfRule type="expression" dxfId="55" priority="55">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="50">
+    <cfRule type="expression" dxfId="54" priority="56">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:I8">
-    <cfRule type="expression" dxfId="47" priority="47">
+    <cfRule type="expression" dxfId="53" priority="53">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="48">
+    <cfRule type="expression" dxfId="52" priority="54">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="45" priority="45">
+    <cfRule type="expression" dxfId="51" priority="51">
       <formula>$C10="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="46">
+    <cfRule type="expression" dxfId="50" priority="52">
       <formula>$D10="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:AE59">
-    <cfRule type="expression" dxfId="43" priority="37">
+    <cfRule type="expression" dxfId="49" priority="43">
       <formula>$C59="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="38">
+    <cfRule type="expression" dxfId="48" priority="44">
       <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z35:AG40 A47:Y47 AA41:AG58 B40 A40:A42 C40:F42 A34:AG34 A33:F33 J33 N33 R33:AG33 A35:F39 A43:F46 N35:N46 J35:J46 R35:R46 A48:R58">
-    <cfRule type="expression" dxfId="41" priority="35">
+    <cfRule type="expression" dxfId="47" priority="41">
       <formula>$C33="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="36">
+    <cfRule type="expression" dxfId="46" priority="42">
       <formula>$D33="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B42">
-    <cfRule type="expression" dxfId="39" priority="33">
+    <cfRule type="expression" dxfId="45" priority="39">
       <formula>$C40="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
+    <cfRule type="expression" dxfId="44" priority="40">
       <formula>$D40="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O35:O36">
-    <cfRule type="expression" dxfId="37" priority="31">
+    <cfRule type="expression" dxfId="43" priority="37">
       <formula>$C35="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="32">
+    <cfRule type="expression" dxfId="42" priority="38">
       <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35:Q36">
+    <cfRule type="expression" dxfId="41" priority="35">
+      <formula>$C35="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="36">
+      <formula>$D35="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37:O46">
+    <cfRule type="expression" dxfId="39" priority="33">
+      <formula>$C37="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="34">
+      <formula>$D37="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P37:Q46">
+    <cfRule type="expression" dxfId="37" priority="31">
+      <formula>$C37="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="32">
+      <formula>$D37="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:K36">
     <cfRule type="expression" dxfId="35" priority="29">
       <formula>$C35="x"</formula>
     </cfRule>
@@ -6019,15 +6109,15 @@
       <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O37:O46">
+  <conditionalFormatting sqref="L35:M36">
     <cfRule type="expression" dxfId="33" priority="27">
-      <formula>$C37="x"</formula>
+      <formula>$C35="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="28">
-      <formula>$D37="x"</formula>
+      <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P37:Q46">
+  <conditionalFormatting sqref="K37:K46">
     <cfRule type="expression" dxfId="31" priority="25">
       <formula>$C37="x"</formula>
     </cfRule>
@@ -6035,15 +6125,15 @@
       <formula>$D37="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:K36">
+  <conditionalFormatting sqref="L37:M46">
     <cfRule type="expression" dxfId="29" priority="23">
-      <formula>$C35="x"</formula>
+      <formula>$C37="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="24">
-      <formula>$D35="x"</formula>
+      <formula>$D37="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L35:M36">
+  <conditionalFormatting sqref="G35:G36">
     <cfRule type="expression" dxfId="27" priority="21">
       <formula>$C35="x"</formula>
     </cfRule>
@@ -6051,15 +6141,15 @@
       <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:K46">
+  <conditionalFormatting sqref="H35:I36">
     <cfRule type="expression" dxfId="25" priority="19">
-      <formula>$C37="x"</formula>
+      <formula>$C35="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="24" priority="20">
-      <formula>$D37="x"</formula>
+      <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L37:M46">
+  <conditionalFormatting sqref="G37:G46">
     <cfRule type="expression" dxfId="23" priority="17">
       <formula>$C37="x"</formula>
     </cfRule>
@@ -6067,15 +6157,15 @@
       <formula>$D37="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35:G36">
+  <conditionalFormatting sqref="H37:I46">
     <cfRule type="expression" dxfId="21" priority="15">
-      <formula>$C35="x"</formula>
+      <formula>$C37="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="16">
-      <formula>$D35="x"</formula>
+      <formula>$D37="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:I36">
+  <conditionalFormatting sqref="S35:Y45">
     <cfRule type="expression" dxfId="19" priority="13">
       <formula>$C35="x"</formula>
     </cfRule>
@@ -6083,83 +6173,83 @@
       <formula>$D35="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37:G46">
+  <conditionalFormatting sqref="S48:Y57">
     <cfRule type="expression" dxfId="17" priority="11">
-      <formula>$C37="x"</formula>
+      <formula>$C48="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="12">
-      <formula>$D37="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37:I46">
-    <cfRule type="expression" dxfId="15" priority="9">
-      <formula>$C37="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
-      <formula>$D37="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S35:Y45">
-    <cfRule type="expression" dxfId="13" priority="7">
-      <formula>$C35="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
-      <formula>$D35="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S48:Y57">
-    <cfRule type="expression" dxfId="11" priority="5">
-      <formula>$C48="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
       <formula>$D48="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S58:Y58">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>$C58="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>$D58="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S46:Y46">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>$C46="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="12" priority="8">
       <formula>$D46="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z55">
-    <cfRule type="expression" dxfId="5" priority="39">
+    <cfRule type="expression" dxfId="11" priority="45">
       <formula>$C59="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="40">
+    <cfRule type="expression" dxfId="10" priority="46">
       <formula>$D59="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z41 Z46:Z53">
-    <cfRule type="expression" dxfId="3" priority="41">
+    <cfRule type="expression" dxfId="9" priority="47">
       <formula>$C44="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="42">
+    <cfRule type="expression" dxfId="8" priority="48">
       <formula>$D44="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z54 Z42:Z45">
-    <cfRule type="expression" dxfId="1" priority="43">
+    <cfRule type="expression" dxfId="7" priority="49">
       <formula>$C46="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="44">
+    <cfRule type="expression" dxfId="6" priority="50">
       <formula>$D46="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$C10="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$D10="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D31 C48:D58 C35:D46" xr:uid="{6D646658-16D3-43D0-865C-2CFC2017A5FB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35:D46 C48:D58 C7:D31" xr:uid="{6D646658-16D3-43D0-865C-2CFC2017A5FB}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I31 M7:M30 M31 Q7:Q32 U7:U31 Y7:Y31 I35:I46 M35:M46 Q35:Q46 U35:U46 Y35:Y46 I48:I58 M48:M58 Q48:Q58 U48:U58 Y48:Y58 I61:I71 M61:M70 M71 Q61:Q71 U61:U71 Y61:Y71" xr:uid="{3C240BF6-EC2E-497A-8B93-F82DACDC889F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I31 M7:M31 Q7:Q32 U7:U31 Y7:Y31 I35:I46 M35:M46 Q35:Q46 U35:U46 Y35:Y46 I48:I58 M48:M58 Q48:Q58 U48:U58 Y48:Y58 I61:I71 M61:M71 Q61:Q71 U61:U71 Y61:Y71" xr:uid="{3C240BF6-EC2E-497A-8B93-F82DACDC889F}">
       <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6380,18 +6470,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6414,14 +6504,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -6436,4 +6518,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_EN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\VisitReport\SAP_C4C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084332F4-0F64-40DE-A571-A8C14B84AD7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CCCB9E-4EB1-44A9-A6BB-8BE558ED01D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8Dyaui/daSUT/hOvn8XBo2s24xlJVXslcs1WHSyLVowDjRkSWj4RV+pFVEsQSEKModckNG3YVppR/q0TwGchqw==" workbookSaltValue="ZPx5szgFR6cPwbArCr9dlg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -2256,45 +2256,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2322,10 +2287,45 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3753,8 +3753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3814,32 +3814,32 @@
         <v>58</v>
       </c>
       <c r="E4" s="30"/>
-      <c r="G4" s="165" t="s">
+      <c r="G4" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="165" t="s">
+      <c r="K4" s="170" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="165"/>
-      <c r="M4" s="165"/>
-      <c r="O4" s="165" t="s">
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="O4" s="170" t="s">
         <v>87</v>
       </c>
-      <c r="P4" s="165"/>
-      <c r="Q4" s="165"/>
-      <c r="S4" s="159" t="s">
+      <c r="P4" s="170"/>
+      <c r="Q4" s="170"/>
+      <c r="S4" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="160"/>
-      <c r="U4" s="161"/>
-      <c r="W4" s="162" t="s">
+      <c r="T4" s="165"/>
+      <c r="U4" s="166"/>
+      <c r="W4" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="163"/>
-      <c r="Y4" s="164"/>
+      <c r="X4" s="168"/>
+      <c r="Y4" s="169"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4803,35 +4803,35 @@
       <c r="C33" s="100"/>
       <c r="D33" s="100"/>
       <c r="E33" s="100"/>
-      <c r="G33" s="166" t="s">
+      <c r="G33" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="167"/>
-      <c r="I33" s="168"/>
+      <c r="H33" s="156"/>
+      <c r="I33" s="157"/>
       <c r="J33" s="101"/>
-      <c r="K33" s="166" t="s">
+      <c r="K33" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="L33" s="167"/>
-      <c r="M33" s="168"/>
+      <c r="L33" s="156"/>
+      <c r="M33" s="157"/>
       <c r="N33" s="101"/>
-      <c r="O33" s="169" t="s">
+      <c r="O33" s="158" t="s">
         <v>87</v>
       </c>
-      <c r="P33" s="170"/>
-      <c r="Q33" s="171"/>
+      <c r="P33" s="159"/>
+      <c r="Q33" s="160"/>
       <c r="R33" s="102"/>
-      <c r="S33" s="172" t="s">
+      <c r="S33" s="161" t="s">
         <v>108</v>
       </c>
-      <c r="T33" s="173"/>
-      <c r="U33" s="174"/>
+      <c r="T33" s="162"/>
+      <c r="U33" s="163"/>
       <c r="V33" s="102"/>
-      <c r="W33" s="172" t="s">
+      <c r="W33" s="161" t="s">
         <v>108</v>
       </c>
-      <c r="X33" s="173"/>
-      <c r="Y33" s="174"/>
+      <c r="X33" s="162"/>
+      <c r="Y33" s="163"/>
     </row>
     <row r="34" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="103" t="s">
@@ -4842,7 +4842,7 @@
       </c>
       <c r="C34" s="105"/>
       <c r="D34" s="105"/>
-      <c r="E34" s="175" t="s">
+      <c r="E34" s="153" t="s">
         <v>25</v>
       </c>
       <c r="G34" s="143" t="s">
@@ -5190,7 +5190,7 @@
       </c>
       <c r="C47" s="151"/>
       <c r="D47" s="151"/>
-      <c r="E47" s="176" t="s">
+      <c r="E47" s="154" t="s">
         <v>25</v>
       </c>
       <c r="G47" s="145" t="s">
@@ -5721,9 +5721,9 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="27"/>
-      <c r="B67" s="153"/>
-      <c r="C67" s="154"/>
-      <c r="D67" s="155"/>
+      <c r="B67" s="171"/>
+      <c r="C67" s="172"/>
+      <c r="D67" s="173"/>
       <c r="E67" s="32"/>
       <c r="G67" s="54"/>
       <c r="H67" s="5"/>
@@ -5743,9 +5743,9 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="27"/>
-      <c r="B68" s="153"/>
-      <c r="C68" s="154"/>
-      <c r="D68" s="155"/>
+      <c r="B68" s="171"/>
+      <c r="C68" s="172"/>
+      <c r="D68" s="173"/>
       <c r="E68" s="32"/>
       <c r="G68" s="54"/>
       <c r="H68" s="5"/>
@@ -5765,9 +5765,9 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="27"/>
-      <c r="B69" s="153"/>
-      <c r="C69" s="154"/>
-      <c r="D69" s="155"/>
+      <c r="B69" s="171"/>
+      <c r="C69" s="172"/>
+      <c r="D69" s="173"/>
       <c r="E69" s="32"/>
       <c r="G69" s="54"/>
       <c r="H69" s="5"/>
@@ -5787,9 +5787,9 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="27"/>
-      <c r="B70" s="153"/>
-      <c r="C70" s="154"/>
-      <c r="D70" s="155"/>
+      <c r="B70" s="171"/>
+      <c r="C70" s="172"/>
+      <c r="D70" s="173"/>
       <c r="E70" s="32"/>
       <c r="G70" s="54"/>
       <c r="H70" s="5"/>
@@ -5809,9 +5809,9 @@
     </row>
     <row r="71" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="28"/>
-      <c r="B71" s="156"/>
-      <c r="C71" s="157"/>
-      <c r="D71" s="158"/>
+      <c r="B71" s="174"/>
+      <c r="C71" s="175"/>
+      <c r="D71" s="176"/>
       <c r="E71" s="33"/>
       <c r="G71" s="58"/>
       <c r="H71" s="59"/>
@@ -5847,21 +5847,21 @@
     <protectedRange sqref="N35:N46 J35:J46 R35:R46 A48:R58 A35:F46" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="K33:M33"/>
     <mergeCell ref="O33:Q33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A31:AG32 J8 B9:G29 I24:O29 I9:K23 M9:AG13 M14:O23 B8:F8 N8:AG8 B30:O30 P14:AG30 A11:A30">
@@ -6128,15 +6128,12 @@
       <formula>$D46="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I61:I71 Y61:Y71 U61:U71 Q61:Q71 M61:M71 Y7:Y31 M7:M31 Q7:Q31 U7:U31 I7:I31 Q48:Q58 I48:I58 M48:M58" xr:uid="{48717D9B-040D-47A7-B696-AE48B2CFBD90}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D31 C48:D58 C35:D46" xr:uid="{6D646658-16D3-43D0-865C-2CFC2017A5FB}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y35:Y46 Q35:Q46 M35:M46 I35:I46 U35:U46 U48:U58 Y48:Y58" xr:uid="{94BC40CD-AC66-4BCB-AF70-DF836A29E009}">
-      <formula1>"text,picklist,multi-picklist,lookup,date,number"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I31 M7:M31 Q7:Q31 U7:U31 Y7:Y31 I35:I46 M35:M46 Q35:Q46 U35:U46 Y35:Y46 Y48:Y58 U48:U58 Q48:Q58 M48:M58 I48:I58 I61:I71 M61:M71 Q61:Q71 U62:U70 U61 U71 Y61:Y71" xr:uid="{D30D4402-75EA-41F5-9556-EC8A511CE101}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6146,18 +6143,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6370,6 +6367,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -6382,14 +6387,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_EN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CCCB9E-4EB1-44A9-A6BB-8BE558ED01D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81717CD5-79AD-4316-8D1E-24BD2BFF326B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8Dyaui/daSUT/hOvn8XBo2s24xlJVXslcs1WHSyLVowDjRkSWj4RV+pFVEsQSEKModckNG3YVppR/q0TwGchqw==" workbookSaltValue="ZPx5szgFR6cPwbArCr9dlg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -311,9 +311,6 @@
     </r>
   </si>
   <si>
-    <t>this is a note</t>
-  </si>
-  <si>
     <t>BusinessAddressStreet</t>
   </si>
   <si>
@@ -399,6 +396,9 @@
   </si>
   <si>
     <t>RegionCode</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -2260,6 +2260,45 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2286,45 +2325,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3753,8 +3753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3814,39 +3814,41 @@
         <v>58</v>
       </c>
       <c r="E4" s="30"/>
-      <c r="G4" s="170" t="s">
+      <c r="G4" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="170" t="s">
+      <c r="K4" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="O4" s="170" t="s">
-        <v>87</v>
-      </c>
-      <c r="P4" s="170"/>
-      <c r="Q4" s="170"/>
-      <c r="S4" s="164" t="s">
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="O4" s="167" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="167"/>
+      <c r="Q4" s="167"/>
+      <c r="S4" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="165"/>
-      <c r="U4" s="166"/>
-      <c r="W4" s="167" t="s">
+      <c r="T4" s="162"/>
+      <c r="U4" s="163"/>
+      <c r="W4" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="168"/>
-      <c r="Y4" s="169"/>
+      <c r="X4" s="165"/>
+      <c r="Y4" s="166"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="47" t="s">
+        <v>110</v>
+      </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
       <c r="E6" s="148" t="s">
@@ -3926,14 +3928,12 @@
       <c r="A8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>81</v>
-      </c>
+      <c r="B8" s="41"/>
       <c r="C8" s="42"/>
       <c r="D8" s="43"/>
       <c r="E8" s="44"/>
       <c r="G8" s="54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>11</v>
@@ -4003,17 +4003,17 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="35"/>
       <c r="G10" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>18</v>
@@ -4196,7 +4196,7 @@
         <v>6</v>
       </c>
       <c r="L15" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M15" s="84" t="s">
         <v>18</v>
@@ -4239,7 +4239,7 @@
         <v>7</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M16" s="84" t="s">
         <v>18</v>
@@ -4282,7 +4282,7 @@
         <v>8</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M17" s="84" t="s">
         <v>18</v>
@@ -4291,7 +4291,7 @@
         <v>8</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="84" t="s">
         <v>18</v>
@@ -4325,7 +4325,7 @@
         <v>67</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M18" s="84" t="s">
         <v>18</v>
@@ -4368,7 +4368,7 @@
         <v>65</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M19" s="84" t="s">
         <v>18</v>
@@ -4512,7 +4512,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I23" s="84" t="s">
         <v>18</v>
@@ -4797,48 +4797,48 @@
     </row>
     <row r="33" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="149" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B33" s="100"/>
       <c r="C33" s="100"/>
       <c r="D33" s="100"/>
       <c r="E33" s="100"/>
-      <c r="G33" s="155" t="s">
+      <c r="G33" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="156"/>
-      <c r="I33" s="157"/>
+      <c r="H33" s="169"/>
+      <c r="I33" s="170"/>
       <c r="J33" s="101"/>
-      <c r="K33" s="155" t="s">
+      <c r="K33" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="L33" s="156"/>
-      <c r="M33" s="157"/>
+      <c r="L33" s="169"/>
+      <c r="M33" s="170"/>
       <c r="N33" s="101"/>
-      <c r="O33" s="158" t="s">
-        <v>87</v>
-      </c>
-      <c r="P33" s="159"/>
-      <c r="Q33" s="160"/>
+      <c r="O33" s="171" t="s">
+        <v>86</v>
+      </c>
+      <c r="P33" s="172"/>
+      <c r="Q33" s="173"/>
       <c r="R33" s="102"/>
-      <c r="S33" s="161" t="s">
-        <v>108</v>
-      </c>
-      <c r="T33" s="162"/>
-      <c r="U33" s="163"/>
+      <c r="S33" s="174" t="s">
+        <v>107</v>
+      </c>
+      <c r="T33" s="175"/>
+      <c r="U33" s="176"/>
       <c r="V33" s="102"/>
-      <c r="W33" s="161" t="s">
-        <v>108</v>
-      </c>
-      <c r="X33" s="162"/>
-      <c r="Y33" s="163"/>
+      <c r="W33" s="174" t="s">
+        <v>107</v>
+      </c>
+      <c r="X33" s="175"/>
+      <c r="Y33" s="176"/>
     </row>
     <row r="34" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="104" t="s">
         <v>92</v>
-      </c>
-      <c r="B34" s="104" t="s">
-        <v>93</v>
       </c>
       <c r="C34" s="105"/>
       <c r="D34" s="105"/>
@@ -4893,15 +4893,15 @@
     </row>
     <row r="35" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A35" s="109" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="110" t="s">
         <v>94</v>
-      </c>
-      <c r="B35" s="110" t="s">
-        <v>95</v>
       </c>
       <c r="C35" s="111"/>
       <c r="D35" s="110"/>
       <c r="E35" s="112" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G35" s="52"/>
       <c r="H35" s="6"/>
@@ -4921,7 +4921,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B36" s="115"/>
       <c r="C36" s="116"/>
@@ -4945,7 +4945,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B37" s="117"/>
       <c r="C37" s="118"/>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38" s="117"/>
       <c r="C38" s="118"/>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" s="117"/>
       <c r="C39" s="118"/>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" s="117"/>
       <c r="C40" s="118"/>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41" s="117"/>
       <c r="C41" s="118"/>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="117"/>
       <c r="C42" s="118"/>
@@ -5089,7 +5089,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B43" s="117"/>
       <c r="C43" s="118"/>
@@ -5113,7 +5113,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B44" s="117"/>
       <c r="C44" s="118"/>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B45" s="120"/>
       <c r="C45" s="121"/>
@@ -5183,10 +5183,10 @@
     </row>
     <row r="47" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="131" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B47" s="150" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C47" s="151"/>
       <c r="D47" s="151"/>
@@ -5241,7 +5241,7 @@
     </row>
     <row r="48" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A48" s="109" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="110"/>
       <c r="C48" s="111"/>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B49" s="117"/>
       <c r="C49" s="118"/>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B50" s="117"/>
       <c r="C50" s="118"/>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B51" s="117"/>
       <c r="C51" s="118"/>
@@ -5337,7 +5337,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B52" s="117"/>
       <c r="C52" s="118"/>
@@ -5361,7 +5361,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B53" s="117"/>
       <c r="C53" s="118"/>
@@ -5385,7 +5385,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B54" s="117"/>
       <c r="C54" s="118"/>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B55" s="117"/>
       <c r="C55" s="118"/>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B56" s="117"/>
       <c r="C56" s="118"/>
@@ -5457,7 +5457,7 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B57" s="120"/>
       <c r="C57" s="121"/>
@@ -5721,9 +5721,9 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="27"/>
-      <c r="B67" s="171"/>
-      <c r="C67" s="172"/>
-      <c r="D67" s="173"/>
+      <c r="B67" s="155"/>
+      <c r="C67" s="156"/>
+      <c r="D67" s="157"/>
       <c r="E67" s="32"/>
       <c r="G67" s="54"/>
       <c r="H67" s="5"/>
@@ -5743,9 +5743,9 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="27"/>
-      <c r="B68" s="171"/>
-      <c r="C68" s="172"/>
-      <c r="D68" s="173"/>
+      <c r="B68" s="155"/>
+      <c r="C68" s="156"/>
+      <c r="D68" s="157"/>
       <c r="E68" s="32"/>
       <c r="G68" s="54"/>
       <c r="H68" s="5"/>
@@ -5765,9 +5765,9 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="27"/>
-      <c r="B69" s="171"/>
-      <c r="C69" s="172"/>
-      <c r="D69" s="173"/>
+      <c r="B69" s="155"/>
+      <c r="C69" s="156"/>
+      <c r="D69" s="157"/>
       <c r="E69" s="32"/>
       <c r="G69" s="54"/>
       <c r="H69" s="5"/>
@@ -5787,9 +5787,9 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="27"/>
-      <c r="B70" s="171"/>
-      <c r="C70" s="172"/>
-      <c r="D70" s="173"/>
+      <c r="B70" s="155"/>
+      <c r="C70" s="156"/>
+      <c r="D70" s="157"/>
       <c r="E70" s="32"/>
       <c r="G70" s="54"/>
       <c r="H70" s="5"/>
@@ -5809,9 +5809,9 @@
     </row>
     <row r="71" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="28"/>
-      <c r="B71" s="174"/>
-      <c r="C71" s="175"/>
-      <c r="D71" s="176"/>
+      <c r="B71" s="158"/>
+      <c r="C71" s="159"/>
+      <c r="D71" s="160"/>
       <c r="E71" s="33"/>
       <c r="G71" s="58"/>
       <c r="H71" s="59"/>
@@ -5847,21 +5847,21 @@
     <protectedRange sqref="N35:N46 J35:J46 R35:R46 A48:R58 A35:F46" name="Questionnaire_1"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="B69:D69"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="B71:D71"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="W33:Y33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A31:AG32 J8 B9:G29 I24:O29 I9:K23 M9:AG13 M14:O23 B8:F8 N8:AG8 B30:O30 P14:AG30 A11:A30">
@@ -6143,18 +6143,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6367,14 +6367,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -6387,6 +6379,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_EN.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3CC92B-6494-46D1-8BD2-F4AC3A49BAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7850E2D6-D7D2-4B95-B9DF-68A12C565479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8Dyaui/daSUT/hOvn8XBo2s24xlJVXslcs1WHSyLVowDjRkSWj4RV+pFVEsQSEKModckNG3YVppR/q0TwGchqw==" workbookSaltValue="ZPx5szgFR6cPwbArCr9dlg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="4380" windowWidth="18255" windowHeight="5385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="118">
   <si>
     <t>Website</t>
   </si>
@@ -1807,6 +1807,59 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1834,64 +1887,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="97">
+  <dxfs count="79">
     <dxf>
       <font>
         <b val="0"/>
@@ -2274,7 +2274,29 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkDown">
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
@@ -2362,29 +2384,7 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
+        <patternFill patternType="darkDown">
           <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
@@ -2582,205 +2582,7 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
         <patternFill patternType="darkUp">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
           <fgColor theme="0" tint="-0.14993743705557422"/>
           <bgColor auto="1"/>
         </patternFill>
@@ -2978,11 +2780,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="96"/>
-      <tableStyleElement type="headerRow" dxfId="95"/>
-      <tableStyleElement type="firstColumn" dxfId="94"/>
-      <tableStyleElement type="firstRowStripe" dxfId="93"/>
-      <tableStyleElement type="secondRowStripe" dxfId="92"/>
+      <tableStyleElement type="wholeTable" dxfId="78"/>
+      <tableStyleElement type="headerRow" dxfId="77"/>
+      <tableStyleElement type="firstColumn" dxfId="76"/>
+      <tableStyleElement type="firstRowStripe" dxfId="75"/>
+      <tableStyleElement type="secondRowStripe" dxfId="74"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3600,8 +3402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3661,32 +3463,32 @@
         <v>57</v>
       </c>
       <c r="E4" s="18"/>
-      <c r="G4" s="103" t="s">
+      <c r="G4" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="103" t="s">
+      <c r="K4" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="O4" s="103" t="s">
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="O4" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="S4" s="97" t="s">
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108"/>
+      <c r="S4" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="98"/>
-      <c r="U4" s="99"/>
-      <c r="W4" s="100" t="s">
+      <c r="T4" s="103"/>
+      <c r="U4" s="104"/>
+      <c r="W4" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="102"/>
+      <c r="X4" s="106"/>
+      <c r="Y4" s="107"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3763,7 +3565,7 @@
       <c r="G7" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="110" t="s">
+      <c r="H7" s="88" t="s">
         <v>114</v>
       </c>
       <c r="I7" s="36" t="s">
@@ -3771,16 +3573,16 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="35"/>
-      <c r="L7" s="110"/>
+      <c r="L7" s="88"/>
       <c r="M7" s="36"/>
       <c r="O7" s="35"/>
-      <c r="P7" s="110"/>
+      <c r="P7" s="88"/>
       <c r="Q7" s="36"/>
       <c r="S7" s="44"/>
-      <c r="T7" s="110"/>
+      <c r="T7" s="88"/>
       <c r="U7" s="45"/>
       <c r="W7" s="44"/>
-      <c r="X7" s="110"/>
+      <c r="X7" s="88"/>
       <c r="Y7" s="45"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -3798,7 +3600,7 @@
       <c r="G8" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="110" t="s">
+      <c r="H8" s="88" t="s">
         <v>116</v>
       </c>
       <c r="I8" s="36" t="s">
@@ -3806,16 +3608,16 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="110"/>
+      <c r="L8" s="88"/>
       <c r="M8" s="36"/>
       <c r="O8" s="35"/>
-      <c r="P8" s="110"/>
+      <c r="P8" s="88"/>
       <c r="Q8" s="36"/>
       <c r="S8" s="44"/>
-      <c r="T8" s="110"/>
+      <c r="T8" s="88"/>
       <c r="U8" s="45"/>
       <c r="W8" s="44"/>
-      <c r="X8" s="110"/>
+      <c r="X8" s="88"/>
       <c r="Y8" s="45"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -3825,20 +3627,20 @@
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
       <c r="G9" s="35"/>
-      <c r="H9" s="110"/>
+      <c r="H9" s="88"/>
       <c r="I9" s="36"/>
       <c r="J9" s="1"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="110"/>
+      <c r="L9" s="88"/>
       <c r="M9" s="36"/>
       <c r="O9" s="35"/>
-      <c r="P9" s="110"/>
+      <c r="P9" s="88"/>
       <c r="Q9" s="36"/>
       <c r="S9" s="44"/>
-      <c r="T9" s="110"/>
+      <c r="T9" s="88"/>
       <c r="U9" s="45"/>
       <c r="W9" s="44"/>
-      <c r="X9" s="110"/>
+      <c r="X9" s="88"/>
       <c r="Y9" s="45"/>
     </row>
     <row r="10" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -3853,7 +3655,7 @@
       <c r="G10" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="110" t="s">
+      <c r="H10" s="88" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="36" t="s">
@@ -3861,23 +3663,25 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="110"/>
+      <c r="L10" s="88"/>
       <c r="M10" s="36"/>
       <c r="N10"/>
       <c r="O10" s="35"/>
-      <c r="P10" s="110"/>
+      <c r="P10" s="88"/>
       <c r="Q10" s="36"/>
       <c r="R10"/>
       <c r="S10" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="110" t="s">
+      <c r="T10" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="U10" s="45"/>
+      <c r="U10" s="45" t="s">
+        <v>18</v>
+      </c>
       <c r="V10"/>
       <c r="W10" s="44"/>
-      <c r="X10" s="110"/>
+      <c r="X10" s="88"/>
       <c r="Y10" s="45"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -3891,7 +3695,7 @@
       <c r="G11" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="110" t="s">
+      <c r="H11" s="88" t="s">
         <v>34</v>
       </c>
       <c r="I11" s="36" t="s">
@@ -3901,24 +3705,26 @@
       <c r="K11" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="110" t="s">
+      <c r="L11" s="88" t="s">
         <v>50</v>
       </c>
       <c r="M11" s="36" t="s">
         <v>19</v>
       </c>
       <c r="O11" s="35"/>
-      <c r="P11" s="110"/>
+      <c r="P11" s="88"/>
       <c r="Q11" s="36"/>
       <c r="S11" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="T11" s="110" t="s">
+      <c r="T11" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="U11" s="45"/>
+      <c r="U11" s="45" t="s">
+        <v>18</v>
+      </c>
       <c r="W11" s="44"/>
-      <c r="X11" s="110"/>
+      <c r="X11" s="88"/>
       <c r="Y11" s="45"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -3932,7 +3738,7 @@
       <c r="G12" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="110" t="s">
+      <c r="H12" s="88" t="s">
         <v>88</v>
       </c>
       <c r="I12" s="36" t="s">
@@ -3940,16 +3746,16 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="110"/>
+      <c r="L12" s="88"/>
       <c r="M12" s="36"/>
       <c r="O12" s="35"/>
-      <c r="P12" s="110"/>
+      <c r="P12" s="88"/>
       <c r="Q12" s="36"/>
       <c r="S12" s="44"/>
-      <c r="T12" s="110"/>
+      <c r="T12" s="88"/>
       <c r="U12" s="45"/>
       <c r="W12" s="44"/>
-      <c r="X12" s="110"/>
+      <c r="X12" s="88"/>
       <c r="Y12" s="45"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -3963,7 +3769,7 @@
       <c r="G13" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="110" t="s">
+      <c r="H13" s="88" t="s">
         <v>35</v>
       </c>
       <c r="I13" s="36" t="s">
@@ -3973,20 +3779,20 @@
       <c r="K13" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="110" t="s">
+      <c r="L13" s="88" t="s">
         <v>3</v>
       </c>
       <c r="M13" s="36" t="s">
         <v>18</v>
       </c>
       <c r="O13" s="35"/>
-      <c r="P13" s="110"/>
+      <c r="P13" s="88"/>
       <c r="Q13" s="36"/>
       <c r="S13" s="44"/>
-      <c r="T13" s="110"/>
+      <c r="T13" s="88"/>
       <c r="U13" s="45"/>
       <c r="W13" s="44"/>
-      <c r="X13" s="110"/>
+      <c r="X13" s="88"/>
       <c r="Y13" s="45"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -4000,7 +3806,7 @@
       <c r="G14" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="110" t="s">
+      <c r="H14" s="88" t="s">
         <v>36</v>
       </c>
       <c r="I14" s="36" t="s">
@@ -4010,20 +3816,20 @@
       <c r="K14" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="L14" s="110" t="s">
+      <c r="L14" s="88" t="s">
         <v>4</v>
       </c>
       <c r="M14" s="36" t="s">
         <v>18</v>
       </c>
       <c r="O14" s="35"/>
-      <c r="P14" s="110"/>
+      <c r="P14" s="88"/>
       <c r="Q14" s="36"/>
       <c r="S14" s="44"/>
-      <c r="T14" s="110"/>
+      <c r="T14" s="88"/>
       <c r="U14" s="45"/>
       <c r="W14" s="44"/>
-      <c r="X14" s="110"/>
+      <c r="X14" s="88"/>
       <c r="Y14" s="45"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -4035,26 +3841,26 @@
       <c r="D15" s="28"/>
       <c r="E15" s="29"/>
       <c r="G15" s="35"/>
-      <c r="H15" s="110"/>
+      <c r="H15" s="88"/>
       <c r="I15" s="36"/>
       <c r="J15" s="1"/>
       <c r="K15" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="L15" s="110" t="s">
+      <c r="L15" s="88" t="s">
         <v>51</v>
       </c>
       <c r="M15" s="36" t="s">
         <v>18</v>
       </c>
       <c r="O15" s="35"/>
-      <c r="P15" s="110"/>
+      <c r="P15" s="88"/>
       <c r="Q15" s="36"/>
       <c r="S15" s="44"/>
-      <c r="T15" s="110"/>
+      <c r="T15" s="88"/>
       <c r="U15" s="45"/>
       <c r="W15" s="44"/>
-      <c r="X15" s="110"/>
+      <c r="X15" s="88"/>
       <c r="Y15" s="45"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -4068,7 +3874,7 @@
       <c r="G16" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="110" t="s">
+      <c r="H16" s="88" t="s">
         <v>5</v>
       </c>
       <c r="I16" s="36" t="s">
@@ -4076,22 +3882,22 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="110"/>
+      <c r="L16" s="88"/>
       <c r="M16" s="36"/>
       <c r="O16" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="P16" s="110" t="s">
+      <c r="P16" s="88" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="36" t="s">
         <v>18</v>
       </c>
       <c r="S16" s="44"/>
-      <c r="T16" s="110"/>
+      <c r="T16" s="88"/>
       <c r="U16" s="45"/>
       <c r="W16" s="44"/>
-      <c r="X16" s="110"/>
+      <c r="X16" s="88"/>
       <c r="Y16" s="45"/>
     </row>
     <row r="17" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -4106,7 +3912,7 @@
       <c r="G17" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="110" t="s">
+      <c r="H17" s="88" t="s">
         <v>37</v>
       </c>
       <c r="I17" s="36" t="s">
@@ -4116,7 +3922,7 @@
       <c r="K17" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="110" t="s">
+      <c r="L17" s="88" t="s">
         <v>80</v>
       </c>
       <c r="M17" s="36" t="s">
@@ -4126,7 +3932,7 @@
       <c r="O17" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="P17" s="110" t="s">
+      <c r="P17" s="88" t="s">
         <v>6</v>
       </c>
       <c r="Q17" s="36" t="s">
@@ -4134,11 +3940,11 @@
       </c>
       <c r="R17"/>
       <c r="S17" s="44"/>
-      <c r="T17" s="110"/>
+      <c r="T17" s="88"/>
       <c r="U17" s="45"/>
       <c r="V17"/>
       <c r="W17" s="44"/>
-      <c r="X17" s="110"/>
+      <c r="X17" s="88"/>
       <c r="Y17" s="45"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -4152,7 +3958,7 @@
       <c r="G18" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="110" t="s">
+      <c r="H18" s="88" t="s">
         <v>38</v>
       </c>
       <c r="I18" s="36" t="s">
@@ -4162,7 +3968,7 @@
       <c r="K18" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="110" t="s">
+      <c r="L18" s="88" t="s">
         <v>81</v>
       </c>
       <c r="M18" s="36" t="s">
@@ -4171,17 +3977,17 @@
       <c r="O18" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="P18" s="110" t="s">
+      <c r="P18" s="88" t="s">
         <v>7</v>
       </c>
       <c r="Q18" s="36" t="s">
         <v>18</v>
       </c>
       <c r="S18" s="44"/>
-      <c r="T18" s="110"/>
+      <c r="T18" s="88"/>
       <c r="U18" s="45"/>
       <c r="W18" s="44"/>
-      <c r="X18" s="110"/>
+      <c r="X18" s="88"/>
       <c r="Y18" s="45"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -4195,7 +4001,7 @@
       <c r="G19" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="110" t="s">
+      <c r="H19" s="88" t="s">
         <v>39</v>
       </c>
       <c r="I19" s="36" t="s">
@@ -4205,7 +4011,7 @@
       <c r="K19" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="110" t="s">
+      <c r="L19" s="88" t="s">
         <v>82</v>
       </c>
       <c r="M19" s="36" t="s">
@@ -4214,17 +4020,17 @@
       <c r="O19" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="P19" s="110" t="s">
+      <c r="P19" s="88" t="s">
         <v>108</v>
       </c>
       <c r="Q19" s="36" t="s">
         <v>18</v>
       </c>
       <c r="S19" s="44"/>
-      <c r="T19" s="110"/>
+      <c r="T19" s="88"/>
       <c r="U19" s="45"/>
       <c r="W19" s="44"/>
-      <c r="X19" s="110"/>
+      <c r="X19" s="88"/>
       <c r="Y19" s="45"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -4238,7 +4044,7 @@
       <c r="G20" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="110" t="s">
+      <c r="H20" s="88" t="s">
         <v>40</v>
       </c>
       <c r="I20" s="36" t="s">
@@ -4248,7 +4054,7 @@
       <c r="K20" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="L20" s="110" t="s">
+      <c r="L20" s="88" t="s">
         <v>83</v>
       </c>
       <c r="M20" s="36" t="s">
@@ -4257,17 +4063,17 @@
       <c r="O20" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="P20" s="110" t="s">
+      <c r="P20" s="88" t="s">
         <v>54</v>
       </c>
       <c r="Q20" s="36" t="s">
         <v>18</v>
       </c>
       <c r="S20" s="44"/>
-      <c r="T20" s="110"/>
+      <c r="T20" s="88"/>
       <c r="U20" s="45"/>
       <c r="W20" s="44"/>
-      <c r="X20" s="110"/>
+      <c r="X20" s="88"/>
       <c r="Y20" s="45"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -4281,7 +4087,7 @@
       <c r="G21" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="110" t="s">
+      <c r="H21" s="88" t="s">
         <v>41</v>
       </c>
       <c r="I21" s="36" t="s">
@@ -4291,7 +4097,7 @@
       <c r="K21" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="L21" s="110" t="s">
+      <c r="L21" s="88" t="s">
         <v>84</v>
       </c>
       <c r="M21" s="36" t="s">
@@ -4300,17 +4106,17 @@
       <c r="O21" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="P21" s="110" t="s">
+      <c r="P21" s="88" t="s">
         <v>52</v>
       </c>
       <c r="Q21" s="36" t="s">
         <v>18</v>
       </c>
       <c r="S21" s="44"/>
-      <c r="T21" s="110"/>
+      <c r="T21" s="88"/>
       <c r="U21" s="45"/>
       <c r="W21" s="44"/>
-      <c r="X21" s="110"/>
+      <c r="X21" s="88"/>
       <c r="Y21" s="45"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -4324,7 +4130,7 @@
       <c r="G22" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="110" t="s">
+      <c r="H22" s="88" t="s">
         <v>42</v>
       </c>
       <c r="I22" s="36" t="s">
@@ -4334,7 +4140,7 @@
       <c r="K22" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="110" t="s">
+      <c r="L22" s="88" t="s">
         <v>9</v>
       </c>
       <c r="M22" s="36" t="s">
@@ -4343,17 +4149,17 @@
       <c r="O22" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="P22" s="110" t="s">
+      <c r="P22" s="88" t="s">
         <v>9</v>
       </c>
       <c r="Q22" s="36" t="s">
         <v>18</v>
       </c>
       <c r="S22" s="44"/>
-      <c r="T22" s="110"/>
+      <c r="T22" s="88"/>
       <c r="U22" s="45"/>
       <c r="W22" s="44"/>
-      <c r="X22" s="110"/>
+      <c r="X22" s="88"/>
       <c r="Y22" s="45"/>
     </row>
     <row r="23" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -4368,7 +4174,7 @@
       <c r="G23" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="110" t="s">
+      <c r="H23" s="88" t="s">
         <v>43</v>
       </c>
       <c r="I23" s="36" t="s">
@@ -4378,7 +4184,7 @@
       <c r="K23" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="110" t="s">
+      <c r="L23" s="88" t="s">
         <v>53</v>
       </c>
       <c r="M23" s="36" t="s">
@@ -4386,15 +4192,15 @@
       </c>
       <c r="N23"/>
       <c r="O23" s="35"/>
-      <c r="P23" s="110"/>
+      <c r="P23" s="88"/>
       <c r="Q23" s="36"/>
       <c r="R23"/>
       <c r="S23" s="44"/>
-      <c r="T23" s="110"/>
+      <c r="T23" s="88"/>
       <c r="U23" s="45"/>
       <c r="V23"/>
       <c r="W23" s="44"/>
-      <c r="X23" s="110"/>
+      <c r="X23" s="88"/>
       <c r="Y23" s="45"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -4406,26 +4212,26 @@
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
       <c r="G24" s="35"/>
-      <c r="H24" s="110"/>
+      <c r="H24" s="88"/>
       <c r="I24" s="36"/>
       <c r="J24" s="1"/>
       <c r="K24" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="L24" s="110" t="s">
+      <c r="L24" s="88" t="s">
         <v>2</v>
       </c>
       <c r="M24" s="36" t="s">
         <v>18</v>
       </c>
       <c r="O24" s="35"/>
-      <c r="P24" s="110"/>
+      <c r="P24" s="88"/>
       <c r="Q24" s="36"/>
       <c r="S24" s="44"/>
-      <c r="T24" s="110"/>
+      <c r="T24" s="88"/>
       <c r="U24" s="45"/>
       <c r="W24" s="44"/>
-      <c r="X24" s="110"/>
+      <c r="X24" s="88"/>
       <c r="Y24" s="45"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -4439,7 +4245,7 @@
       <c r="G25" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H25" s="110" t="s">
+      <c r="H25" s="88" t="s">
         <v>107</v>
       </c>
       <c r="I25" s="36" t="s">
@@ -4449,20 +4255,20 @@
       <c r="K25" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="L25" s="110" t="s">
+      <c r="L25" s="88" t="s">
         <v>10</v>
       </c>
       <c r="M25" s="36" t="s">
         <v>18</v>
       </c>
       <c r="O25" s="35"/>
-      <c r="P25" s="110"/>
+      <c r="P25" s="88"/>
       <c r="Q25" s="36"/>
       <c r="S25" s="44"/>
-      <c r="T25" s="110"/>
+      <c r="T25" s="88"/>
       <c r="U25" s="45"/>
       <c r="W25" s="44"/>
-      <c r="X25" s="110"/>
+      <c r="X25" s="88"/>
       <c r="Y25" s="45"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -4476,7 +4282,7 @@
       <c r="G26" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="110" t="s">
+      <c r="H26" s="88" t="s">
         <v>44</v>
       </c>
       <c r="I26" s="36" t="s">
@@ -4484,16 +4290,16 @@
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="35"/>
-      <c r="L26" s="110"/>
+      <c r="L26" s="88"/>
       <c r="M26" s="36"/>
       <c r="O26" s="35"/>
-      <c r="P26" s="110"/>
+      <c r="P26" s="88"/>
       <c r="Q26" s="36"/>
       <c r="S26" s="44"/>
-      <c r="T26" s="110"/>
+      <c r="T26" s="88"/>
       <c r="U26" s="45"/>
       <c r="W26" s="44"/>
-      <c r="X26" s="110"/>
+      <c r="X26" s="88"/>
       <c r="Y26" s="45"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -4507,7 +4313,7 @@
       <c r="G27" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="110" t="s">
+      <c r="H27" s="88" t="s">
         <v>45</v>
       </c>
       <c r="I27" s="36" t="s">
@@ -4515,16 +4321,16 @@
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="35"/>
-      <c r="L27" s="110"/>
+      <c r="L27" s="88"/>
       <c r="M27" s="36"/>
       <c r="O27" s="35"/>
-      <c r="P27" s="110"/>
+      <c r="P27" s="88"/>
       <c r="Q27" s="36"/>
       <c r="S27" s="44"/>
-      <c r="T27" s="110"/>
+      <c r="T27" s="88"/>
       <c r="U27" s="45"/>
       <c r="W27" s="44"/>
-      <c r="X27" s="110"/>
+      <c r="X27" s="88"/>
       <c r="Y27" s="45"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -4538,7 +4344,7 @@
       <c r="G28" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="110" t="s">
+      <c r="H28" s="88" t="s">
         <v>46</v>
       </c>
       <c r="I28" s="36" t="s">
@@ -4546,16 +4352,16 @@
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="35"/>
-      <c r="L28" s="110"/>
+      <c r="L28" s="88"/>
       <c r="M28" s="36"/>
       <c r="O28" s="35"/>
-      <c r="P28" s="110"/>
+      <c r="P28" s="88"/>
       <c r="Q28" s="36"/>
       <c r="S28" s="44"/>
-      <c r="T28" s="110"/>
+      <c r="T28" s="88"/>
       <c r="U28" s="45"/>
       <c r="W28" s="44"/>
-      <c r="X28" s="110"/>
+      <c r="X28" s="88"/>
       <c r="Y28" s="45"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
@@ -4569,7 +4375,7 @@
       <c r="G29" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="110" t="s">
+      <c r="H29" s="88" t="s">
         <v>47</v>
       </c>
       <c r="I29" s="36" t="s">
@@ -4577,16 +4383,16 @@
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="35"/>
-      <c r="L29" s="110"/>
+      <c r="L29" s="88"/>
       <c r="M29" s="36"/>
       <c r="O29" s="35"/>
-      <c r="P29" s="110"/>
+      <c r="P29" s="88"/>
       <c r="Q29" s="36"/>
       <c r="S29" s="44"/>
-      <c r="T29" s="110"/>
+      <c r="T29" s="88"/>
       <c r="U29" s="45"/>
       <c r="W29" s="44"/>
-      <c r="X29" s="110"/>
+      <c r="X29" s="88"/>
       <c r="Y29" s="45"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
@@ -4600,7 +4406,7 @@
       <c r="G30" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="110" t="s">
+      <c r="H30" s="88" t="s">
         <v>48</v>
       </c>
       <c r="I30" s="36" t="s">
@@ -4608,16 +4414,16 @@
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="35"/>
-      <c r="L30" s="110"/>
+      <c r="L30" s="88"/>
       <c r="M30" s="36"/>
       <c r="O30" s="35"/>
-      <c r="P30" s="110"/>
+      <c r="P30" s="88"/>
       <c r="Q30" s="36"/>
       <c r="S30" s="44"/>
-      <c r="T30" s="110"/>
+      <c r="T30" s="88"/>
       <c r="U30" s="45"/>
       <c r="W30" s="44"/>
-      <c r="X30" s="110"/>
+      <c r="X30" s="88"/>
       <c r="Y30" s="45"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
@@ -4631,7 +4437,7 @@
       <c r="G31" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="H31" s="110" t="s">
+      <c r="H31" s="88" t="s">
         <v>49</v>
       </c>
       <c r="I31" s="36" t="s">
@@ -4639,16 +4445,16 @@
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="35"/>
-      <c r="L31" s="110"/>
+      <c r="L31" s="88"/>
       <c r="M31" s="36"/>
       <c r="O31" s="35"/>
-      <c r="P31" s="110"/>
+      <c r="P31" s="88"/>
       <c r="Q31" s="36"/>
       <c r="S31" s="44"/>
-      <c r="T31" s="110"/>
+      <c r="T31" s="88"/>
       <c r="U31" s="45"/>
       <c r="W31" s="44"/>
-      <c r="X31" s="110"/>
+      <c r="X31" s="88"/>
       <c r="Y31" s="45"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
@@ -4660,26 +4466,26 @@
       <c r="D32" s="28"/>
       <c r="E32" s="29"/>
       <c r="G32" s="35"/>
-      <c r="H32" s="110"/>
+      <c r="H32" s="88"/>
       <c r="I32" s="36"/>
       <c r="J32" s="1"/>
       <c r="K32" s="35"/>
-      <c r="L32" s="110"/>
+      <c r="L32" s="88"/>
       <c r="M32" s="36"/>
       <c r="O32" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="P32" s="110" t="s">
+      <c r="P32" s="88" t="s">
         <v>55</v>
       </c>
       <c r="Q32" s="36" t="s">
         <v>19</v>
       </c>
       <c r="S32" s="44"/>
-      <c r="T32" s="110"/>
+      <c r="T32" s="88"/>
       <c r="U32" s="45"/>
       <c r="W32" s="44"/>
-      <c r="X32" s="110"/>
+      <c r="X32" s="88"/>
       <c r="Y32" s="45"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -4689,20 +4495,20 @@
       <c r="D33" s="28"/>
       <c r="E33" s="29"/>
       <c r="G33" s="35"/>
-      <c r="H33" s="110"/>
+      <c r="H33" s="88"/>
       <c r="I33" s="36"/>
       <c r="J33" s="1"/>
       <c r="K33" s="35"/>
-      <c r="L33" s="110"/>
+      <c r="L33" s="88"/>
       <c r="M33" s="36"/>
       <c r="O33" s="35"/>
-      <c r="P33" s="110"/>
+      <c r="P33" s="88"/>
       <c r="Q33" s="36"/>
       <c r="S33" s="44"/>
-      <c r="T33" s="110"/>
+      <c r="T33" s="88"/>
       <c r="U33" s="45"/>
       <c r="W33" s="44"/>
-      <c r="X33" s="110"/>
+      <c r="X33" s="88"/>
       <c r="Y33" s="45"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -4712,20 +4518,20 @@
       <c r="D34" s="28"/>
       <c r="E34" s="29"/>
       <c r="G34" s="35"/>
-      <c r="H34" s="110"/>
+      <c r="H34" s="88"/>
       <c r="I34" s="36"/>
       <c r="J34" s="1"/>
       <c r="K34" s="35"/>
-      <c r="L34" s="110"/>
+      <c r="L34" s="88"/>
       <c r="M34" s="36"/>
       <c r="O34" s="35"/>
-      <c r="P34" s="110"/>
+      <c r="P34" s="88"/>
       <c r="Q34" s="36"/>
       <c r="S34" s="44"/>
-      <c r="T34" s="110"/>
+      <c r="T34" s="88"/>
       <c r="U34" s="45"/>
       <c r="W34" s="44"/>
-      <c r="X34" s="110"/>
+      <c r="X34" s="88"/>
       <c r="Y34" s="45"/>
     </row>
     <row r="35" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4735,20 +4541,20 @@
       <c r="D35" s="14"/>
       <c r="E35" s="22"/>
       <c r="G35" s="37"/>
-      <c r="H35" s="111"/>
+      <c r="H35" s="89"/>
       <c r="I35" s="38"/>
       <c r="J35" s="1"/>
       <c r="K35" s="37"/>
-      <c r="L35" s="111"/>
+      <c r="L35" s="89"/>
       <c r="M35" s="38"/>
       <c r="O35" s="37"/>
-      <c r="P35" s="111"/>
+      <c r="P35" s="89"/>
       <c r="Q35" s="38"/>
       <c r="S35" s="46"/>
-      <c r="T35" s="112"/>
+      <c r="T35" s="90"/>
       <c r="U35" s="47"/>
       <c r="W35" s="46"/>
-      <c r="X35" s="112"/>
+      <c r="X35" s="90"/>
       <c r="Y35" s="47"/>
     </row>
     <row r="36" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4777,32 +4583,32 @@
       <c r="C37" s="59"/>
       <c r="D37" s="59"/>
       <c r="E37" s="59"/>
-      <c r="G37" s="88" t="s">
+      <c r="G37" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="89"/>
-      <c r="I37" s="90"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="111"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="88" t="s">
+      <c r="K37" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="L37" s="89"/>
-      <c r="M37" s="90"/>
-      <c r="O37" s="91" t="s">
+      <c r="L37" s="110"/>
+      <c r="M37" s="111"/>
+      <c r="O37" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="P37" s="92"/>
-      <c r="Q37" s="93"/>
-      <c r="S37" s="94" t="s">
+      <c r="P37" s="113"/>
+      <c r="Q37" s="114"/>
+      <c r="S37" s="115" t="s">
         <v>106</v>
       </c>
-      <c r="T37" s="95"/>
-      <c r="U37" s="96"/>
-      <c r="W37" s="94" t="s">
+      <c r="T37" s="116"/>
+      <c r="U37" s="117"/>
+      <c r="W37" s="115" t="s">
         <v>106</v>
       </c>
-      <c r="X37" s="95"/>
-      <c r="Y37" s="96"/>
+      <c r="X37" s="116"/>
+      <c r="Y37" s="117"/>
     </row>
     <row r="38" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="60" t="s">
@@ -4876,20 +4682,20 @@
         <v>94</v>
       </c>
       <c r="G39" s="35"/>
-      <c r="H39" s="110"/>
+      <c r="H39" s="88"/>
       <c r="I39" s="36"/>
       <c r="J39" s="1"/>
       <c r="K39" s="35"/>
-      <c r="L39" s="110"/>
+      <c r="L39" s="88"/>
       <c r="M39" s="36"/>
       <c r="O39" s="35"/>
-      <c r="P39" s="110"/>
+      <c r="P39" s="88"/>
       <c r="Q39" s="36"/>
       <c r="S39" s="44"/>
-      <c r="T39" s="110"/>
+      <c r="T39" s="88"/>
       <c r="U39" s="45"/>
       <c r="W39" s="44"/>
-      <c r="X39" s="110"/>
+      <c r="X39" s="88"/>
       <c r="Y39" s="45"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
@@ -4901,20 +4707,20 @@
       <c r="D40" s="28"/>
       <c r="E40" s="29"/>
       <c r="G40" s="35"/>
-      <c r="H40" s="110"/>
+      <c r="H40" s="88"/>
       <c r="I40" s="36"/>
       <c r="J40" s="1"/>
       <c r="K40" s="35"/>
-      <c r="L40" s="110"/>
+      <c r="L40" s="88"/>
       <c r="M40" s="36"/>
       <c r="O40" s="35"/>
-      <c r="P40" s="110"/>
+      <c r="P40" s="88"/>
       <c r="Q40" s="36"/>
       <c r="S40" s="44"/>
-      <c r="T40" s="110"/>
+      <c r="T40" s="88"/>
       <c r="U40" s="45"/>
       <c r="W40" s="44"/>
-      <c r="X40" s="110"/>
+      <c r="X40" s="88"/>
       <c r="Y40" s="45"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
@@ -4926,20 +4732,20 @@
       <c r="D41" s="28"/>
       <c r="E41" s="29"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="110"/>
+      <c r="H41" s="88"/>
       <c r="I41" s="36"/>
       <c r="J41" s="1"/>
       <c r="K41" s="35"/>
-      <c r="L41" s="110"/>
+      <c r="L41" s="88"/>
       <c r="M41" s="36"/>
       <c r="O41" s="35"/>
-      <c r="P41" s="110"/>
+      <c r="P41" s="88"/>
       <c r="Q41" s="36"/>
       <c r="S41" s="44"/>
-      <c r="T41" s="110"/>
+      <c r="T41" s="88"/>
       <c r="U41" s="45"/>
       <c r="W41" s="44"/>
-      <c r="X41" s="110"/>
+      <c r="X41" s="88"/>
       <c r="Y41" s="45"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
@@ -4951,20 +4757,20 @@
       <c r="D42" s="28"/>
       <c r="E42" s="29"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="110"/>
+      <c r="H42" s="88"/>
       <c r="I42" s="36"/>
       <c r="J42" s="1"/>
       <c r="K42" s="35"/>
-      <c r="L42" s="110"/>
+      <c r="L42" s="88"/>
       <c r="M42" s="36"/>
       <c r="O42" s="35"/>
-      <c r="P42" s="110"/>
+      <c r="P42" s="88"/>
       <c r="Q42" s="36"/>
       <c r="S42" s="44"/>
-      <c r="T42" s="110"/>
+      <c r="T42" s="88"/>
       <c r="U42" s="45"/>
       <c r="W42" s="44"/>
-      <c r="X42" s="110"/>
+      <c r="X42" s="88"/>
       <c r="Y42" s="45"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
@@ -4976,20 +4782,20 @@
       <c r="D43" s="28"/>
       <c r="E43" s="29"/>
       <c r="G43" s="35"/>
-      <c r="H43" s="110"/>
+      <c r="H43" s="88"/>
       <c r="I43" s="36"/>
       <c r="J43" s="1"/>
       <c r="K43" s="35"/>
-      <c r="L43" s="110"/>
+      <c r="L43" s="88"/>
       <c r="M43" s="36"/>
       <c r="O43" s="35"/>
-      <c r="P43" s="110"/>
+      <c r="P43" s="88"/>
       <c r="Q43" s="36"/>
       <c r="S43" s="44"/>
-      <c r="T43" s="110"/>
+      <c r="T43" s="88"/>
       <c r="U43" s="45"/>
       <c r="W43" s="44"/>
-      <c r="X43" s="110"/>
+      <c r="X43" s="88"/>
       <c r="Y43" s="45"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
@@ -5001,20 +4807,20 @@
       <c r="D44" s="28"/>
       <c r="E44" s="29"/>
       <c r="G44" s="35"/>
-      <c r="H44" s="110"/>
+      <c r="H44" s="88"/>
       <c r="I44" s="36"/>
       <c r="J44" s="1"/>
       <c r="K44" s="35"/>
-      <c r="L44" s="110"/>
+      <c r="L44" s="88"/>
       <c r="M44" s="36"/>
       <c r="O44" s="35"/>
-      <c r="P44" s="110"/>
+      <c r="P44" s="88"/>
       <c r="Q44" s="36"/>
       <c r="S44" s="44"/>
-      <c r="T44" s="110"/>
+      <c r="T44" s="88"/>
       <c r="U44" s="45"/>
       <c r="W44" s="44"/>
-      <c r="X44" s="110"/>
+      <c r="X44" s="88"/>
       <c r="Y44" s="45"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
@@ -5026,20 +4832,20 @@
       <c r="D45" s="28"/>
       <c r="E45" s="29"/>
       <c r="G45" s="35"/>
-      <c r="H45" s="110"/>
+      <c r="H45" s="88"/>
       <c r="I45" s="36"/>
       <c r="J45" s="1"/>
       <c r="K45" s="35"/>
-      <c r="L45" s="110"/>
+      <c r="L45" s="88"/>
       <c r="M45" s="36"/>
       <c r="O45" s="35"/>
-      <c r="P45" s="110"/>
+      <c r="P45" s="88"/>
       <c r="Q45" s="36"/>
       <c r="S45" s="44"/>
-      <c r="T45" s="110"/>
+      <c r="T45" s="88"/>
       <c r="U45" s="45"/>
       <c r="W45" s="44"/>
-      <c r="X45" s="110"/>
+      <c r="X45" s="88"/>
       <c r="Y45" s="45"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
@@ -5051,20 +4857,20 @@
       <c r="D46" s="28"/>
       <c r="E46" s="29"/>
       <c r="G46" s="35"/>
-      <c r="H46" s="110"/>
+      <c r="H46" s="88"/>
       <c r="I46" s="36"/>
       <c r="J46" s="1"/>
       <c r="K46" s="35"/>
-      <c r="L46" s="110"/>
+      <c r="L46" s="88"/>
       <c r="M46" s="36"/>
       <c r="O46" s="35"/>
-      <c r="P46" s="110"/>
+      <c r="P46" s="88"/>
       <c r="Q46" s="36"/>
       <c r="S46" s="44"/>
-      <c r="T46" s="110"/>
+      <c r="T46" s="88"/>
       <c r="U46" s="45"/>
       <c r="W46" s="44"/>
-      <c r="X46" s="110"/>
+      <c r="X46" s="88"/>
       <c r="Y46" s="45"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
@@ -5076,20 +4882,20 @@
       <c r="D47" s="28"/>
       <c r="E47" s="29"/>
       <c r="G47" s="35"/>
-      <c r="H47" s="110"/>
+      <c r="H47" s="88"/>
       <c r="I47" s="36"/>
       <c r="J47" s="1"/>
       <c r="K47" s="35"/>
-      <c r="L47" s="110"/>
+      <c r="L47" s="88"/>
       <c r="M47" s="36"/>
       <c r="O47" s="35"/>
-      <c r="P47" s="110"/>
+      <c r="P47" s="88"/>
       <c r="Q47" s="36"/>
       <c r="S47" s="44"/>
-      <c r="T47" s="110"/>
+      <c r="T47" s="88"/>
       <c r="U47" s="45"/>
       <c r="W47" s="44"/>
-      <c r="X47" s="110"/>
+      <c r="X47" s="88"/>
       <c r="Y47" s="45"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
@@ -5101,20 +4907,20 @@
       <c r="D48" s="28"/>
       <c r="E48" s="29"/>
       <c r="G48" s="35"/>
-      <c r="H48" s="110"/>
+      <c r="H48" s="88"/>
       <c r="I48" s="36"/>
       <c r="J48" s="1"/>
       <c r="K48" s="35"/>
-      <c r="L48" s="110"/>
+      <c r="L48" s="88"/>
       <c r="M48" s="36"/>
       <c r="O48" s="35"/>
-      <c r="P48" s="110"/>
+      <c r="P48" s="88"/>
       <c r="Q48" s="36"/>
       <c r="S48" s="44"/>
-      <c r="T48" s="110"/>
+      <c r="T48" s="88"/>
       <c r="U48" s="45"/>
       <c r="W48" s="44"/>
-      <c r="X48" s="110"/>
+      <c r="X48" s="88"/>
       <c r="Y48" s="45"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
@@ -5126,20 +4932,20 @@
       <c r="D49" s="28"/>
       <c r="E49" s="29"/>
       <c r="G49" s="35"/>
-      <c r="H49" s="110"/>
+      <c r="H49" s="88"/>
       <c r="I49" s="36"/>
       <c r="J49" s="1"/>
       <c r="K49" s="35"/>
-      <c r="L49" s="110"/>
+      <c r="L49" s="88"/>
       <c r="M49" s="36"/>
       <c r="O49" s="35"/>
-      <c r="P49" s="110"/>
+      <c r="P49" s="88"/>
       <c r="Q49" s="36"/>
       <c r="S49" s="44"/>
-      <c r="T49" s="110"/>
+      <c r="T49" s="88"/>
       <c r="U49" s="45"/>
       <c r="W49" s="44"/>
-      <c r="X49" s="110"/>
+      <c r="X49" s="88"/>
       <c r="Y49" s="45"/>
     </row>
     <row r="50" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5149,20 +4955,20 @@
       <c r="D50" s="66"/>
       <c r="E50" s="67"/>
       <c r="G50" s="37"/>
-      <c r="H50" s="111"/>
+      <c r="H50" s="89"/>
       <c r="I50" s="38"/>
       <c r="J50" s="1"/>
       <c r="K50" s="37"/>
-      <c r="L50" s="111"/>
+      <c r="L50" s="89"/>
       <c r="M50" s="38"/>
       <c r="O50" s="37"/>
-      <c r="P50" s="111"/>
+      <c r="P50" s="89"/>
       <c r="Q50" s="38"/>
       <c r="S50" s="46"/>
-      <c r="T50" s="112"/>
+      <c r="T50" s="90"/>
       <c r="U50" s="47"/>
       <c r="W50" s="46"/>
-      <c r="X50" s="112"/>
+      <c r="X50" s="90"/>
       <c r="Y50" s="47"/>
     </row>
     <row r="51" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5233,20 +5039,20 @@
       <c r="D52" s="28"/>
       <c r="E52" s="29"/>
       <c r="G52" s="35"/>
-      <c r="H52" s="110"/>
+      <c r="H52" s="88"/>
       <c r="I52" s="36"/>
       <c r="J52" s="1"/>
       <c r="K52" s="35"/>
-      <c r="L52" s="110"/>
+      <c r="L52" s="88"/>
       <c r="M52" s="36"/>
       <c r="O52" s="35"/>
-      <c r="P52" s="110"/>
+      <c r="P52" s="88"/>
       <c r="Q52" s="36"/>
       <c r="S52" s="44"/>
-      <c r="T52" s="110"/>
+      <c r="T52" s="88"/>
       <c r="U52" s="45"/>
       <c r="W52" s="44"/>
-      <c r="X52" s="110"/>
+      <c r="X52" s="88"/>
       <c r="Y52" s="45"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
@@ -5258,20 +5064,20 @@
       <c r="D53" s="28"/>
       <c r="E53" s="29"/>
       <c r="G53" s="35"/>
-      <c r="H53" s="110"/>
+      <c r="H53" s="88"/>
       <c r="I53" s="36"/>
       <c r="J53" s="1"/>
       <c r="K53" s="35"/>
-      <c r="L53" s="110"/>
+      <c r="L53" s="88"/>
       <c r="M53" s="36"/>
       <c r="O53" s="35"/>
-      <c r="P53" s="110"/>
+      <c r="P53" s="88"/>
       <c r="Q53" s="36"/>
       <c r="S53" s="44"/>
-      <c r="T53" s="110"/>
+      <c r="T53" s="88"/>
       <c r="U53" s="45"/>
       <c r="W53" s="44"/>
-      <c r="X53" s="110"/>
+      <c r="X53" s="88"/>
       <c r="Y53" s="45"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
@@ -5283,20 +5089,20 @@
       <c r="D54" s="28"/>
       <c r="E54" s="29"/>
       <c r="G54" s="35"/>
-      <c r="H54" s="110"/>
+      <c r="H54" s="88"/>
       <c r="I54" s="36"/>
       <c r="J54" s="1"/>
       <c r="K54" s="35"/>
-      <c r="L54" s="110"/>
+      <c r="L54" s="88"/>
       <c r="M54" s="36"/>
       <c r="O54" s="35"/>
-      <c r="P54" s="110"/>
+      <c r="P54" s="88"/>
       <c r="Q54" s="36"/>
       <c r="S54" s="44"/>
-      <c r="T54" s="110"/>
+      <c r="T54" s="88"/>
       <c r="U54" s="45"/>
       <c r="W54" s="44"/>
-      <c r="X54" s="110"/>
+      <c r="X54" s="88"/>
       <c r="Y54" s="45"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
@@ -5308,20 +5114,20 @@
       <c r="D55" s="28"/>
       <c r="E55" s="29"/>
       <c r="G55" s="35"/>
-      <c r="H55" s="110"/>
+      <c r="H55" s="88"/>
       <c r="I55" s="36"/>
       <c r="J55" s="1"/>
       <c r="K55" s="35"/>
-      <c r="L55" s="110"/>
+      <c r="L55" s="88"/>
       <c r="M55" s="36"/>
       <c r="O55" s="35"/>
-      <c r="P55" s="110"/>
+      <c r="P55" s="88"/>
       <c r="Q55" s="36"/>
       <c r="S55" s="44"/>
-      <c r="T55" s="110"/>
+      <c r="T55" s="88"/>
       <c r="U55" s="45"/>
       <c r="W55" s="44"/>
-      <c r="X55" s="110"/>
+      <c r="X55" s="88"/>
       <c r="Y55" s="45"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
@@ -5333,20 +5139,20 @@
       <c r="D56" s="28"/>
       <c r="E56" s="29"/>
       <c r="G56" s="35"/>
-      <c r="H56" s="110"/>
+      <c r="H56" s="88"/>
       <c r="I56" s="36"/>
       <c r="J56" s="1"/>
       <c r="K56" s="35"/>
-      <c r="L56" s="110"/>
+      <c r="L56" s="88"/>
       <c r="M56" s="36"/>
       <c r="O56" s="35"/>
-      <c r="P56" s="110"/>
+      <c r="P56" s="88"/>
       <c r="Q56" s="36"/>
       <c r="S56" s="44"/>
-      <c r="T56" s="110"/>
+      <c r="T56" s="88"/>
       <c r="U56" s="45"/>
       <c r="W56" s="44"/>
-      <c r="X56" s="110"/>
+      <c r="X56" s="88"/>
       <c r="Y56" s="45"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
@@ -5358,20 +5164,20 @@
       <c r="D57" s="28"/>
       <c r="E57" s="29"/>
       <c r="G57" s="35"/>
-      <c r="H57" s="110"/>
+      <c r="H57" s="88"/>
       <c r="I57" s="36"/>
       <c r="J57" s="1"/>
       <c r="K57" s="35"/>
-      <c r="L57" s="110"/>
+      <c r="L57" s="88"/>
       <c r="M57" s="36"/>
       <c r="O57" s="35"/>
-      <c r="P57" s="110"/>
+      <c r="P57" s="88"/>
       <c r="Q57" s="36"/>
       <c r="S57" s="44"/>
-      <c r="T57" s="110"/>
+      <c r="T57" s="88"/>
       <c r="U57" s="45"/>
       <c r="W57" s="44"/>
-      <c r="X57" s="110"/>
+      <c r="X57" s="88"/>
       <c r="Y57" s="45"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
@@ -5383,20 +5189,20 @@
       <c r="D58" s="28"/>
       <c r="E58" s="29"/>
       <c r="G58" s="35"/>
-      <c r="H58" s="110"/>
+      <c r="H58" s="88"/>
       <c r="I58" s="36"/>
       <c r="J58" s="1"/>
       <c r="K58" s="35"/>
-      <c r="L58" s="110"/>
+      <c r="L58" s="88"/>
       <c r="M58" s="36"/>
       <c r="O58" s="35"/>
-      <c r="P58" s="110"/>
+      <c r="P58" s="88"/>
       <c r="Q58" s="36"/>
       <c r="S58" s="44"/>
-      <c r="T58" s="110"/>
+      <c r="T58" s="88"/>
       <c r="U58" s="45"/>
       <c r="W58" s="44"/>
-      <c r="X58" s="110"/>
+      <c r="X58" s="88"/>
       <c r="Y58" s="45"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.25">
@@ -5408,20 +5214,20 @@
       <c r="D59" s="28"/>
       <c r="E59" s="29"/>
       <c r="G59" s="35"/>
-      <c r="H59" s="110"/>
+      <c r="H59" s="88"/>
       <c r="I59" s="36"/>
       <c r="J59" s="1"/>
       <c r="K59" s="35"/>
-      <c r="L59" s="110"/>
+      <c r="L59" s="88"/>
       <c r="M59" s="36"/>
       <c r="O59" s="35"/>
-      <c r="P59" s="110"/>
+      <c r="P59" s="88"/>
       <c r="Q59" s="36"/>
       <c r="S59" s="44"/>
-      <c r="T59" s="110"/>
+      <c r="T59" s="88"/>
       <c r="U59" s="45"/>
       <c r="W59" s="44"/>
-      <c r="X59" s="110"/>
+      <c r="X59" s="88"/>
       <c r="Y59" s="45"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
@@ -5433,20 +5239,20 @@
       <c r="D60" s="28"/>
       <c r="E60" s="29"/>
       <c r="G60" s="35"/>
-      <c r="H60" s="110"/>
+      <c r="H60" s="88"/>
       <c r="I60" s="36"/>
       <c r="J60" s="1"/>
       <c r="K60" s="35"/>
-      <c r="L60" s="110"/>
+      <c r="L60" s="88"/>
       <c r="M60" s="36"/>
       <c r="O60" s="35"/>
-      <c r="P60" s="110"/>
+      <c r="P60" s="88"/>
       <c r="Q60" s="36"/>
       <c r="S60" s="44"/>
-      <c r="T60" s="110"/>
+      <c r="T60" s="88"/>
       <c r="U60" s="45"/>
       <c r="W60" s="44"/>
-      <c r="X60" s="110"/>
+      <c r="X60" s="88"/>
       <c r="Y60" s="45"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.25">
@@ -5458,20 +5264,20 @@
       <c r="D61" s="28"/>
       <c r="E61" s="29"/>
       <c r="G61" s="35"/>
-      <c r="H61" s="110"/>
+      <c r="H61" s="88"/>
       <c r="I61" s="36"/>
       <c r="J61" s="1"/>
       <c r="K61" s="35"/>
-      <c r="L61" s="110"/>
+      <c r="L61" s="88"/>
       <c r="M61" s="36"/>
       <c r="O61" s="35"/>
-      <c r="P61" s="110"/>
+      <c r="P61" s="88"/>
       <c r="Q61" s="36"/>
       <c r="S61" s="44"/>
-      <c r="T61" s="110"/>
+      <c r="T61" s="88"/>
       <c r="U61" s="45"/>
       <c r="W61" s="44"/>
-      <c r="X61" s="110"/>
+      <c r="X61" s="88"/>
       <c r="Y61" s="45"/>
     </row>
     <row r="62" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5481,20 +5287,20 @@
       <c r="D62" s="68"/>
       <c r="E62" s="69"/>
       <c r="G62" s="37"/>
-      <c r="H62" s="111"/>
+      <c r="H62" s="89"/>
       <c r="I62" s="38"/>
       <c r="J62" s="1"/>
       <c r="K62" s="37"/>
-      <c r="L62" s="111"/>
+      <c r="L62" s="89"/>
       <c r="M62" s="38"/>
       <c r="O62" s="37"/>
-      <c r="P62" s="111"/>
+      <c r="P62" s="89"/>
       <c r="Q62" s="38"/>
       <c r="S62" s="46"/>
-      <c r="T62" s="112"/>
+      <c r="T62" s="90"/>
       <c r="U62" s="47"/>
       <c r="W62" s="46"/>
-      <c r="X62" s="112"/>
+      <c r="X62" s="90"/>
       <c r="Y62" s="47"/>
     </row>
     <row r="63" spans="1:25" ht="9.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5570,7 +5376,7 @@
       </c>
     </row>
     <row r="65" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="117" t="s">
+      <c r="A65" s="95" t="s">
         <v>117</v>
       </c>
       <c r="B65" s="52"/>
@@ -5578,47 +5384,47 @@
       <c r="D65" s="54"/>
       <c r="E65" s="19"/>
       <c r="G65" s="35"/>
-      <c r="H65" s="110"/>
+      <c r="H65" s="88"/>
       <c r="I65" s="36"/>
       <c r="J65" s="1"/>
       <c r="K65" s="35"/>
-      <c r="L65" s="110"/>
+      <c r="L65" s="88"/>
       <c r="M65" s="36"/>
       <c r="O65" s="35"/>
-      <c r="P65" s="110"/>
+      <c r="P65" s="88"/>
       <c r="Q65" s="36"/>
       <c r="S65" s="44"/>
-      <c r="T65" s="110"/>
+      <c r="T65" s="88"/>
       <c r="U65" s="45"/>
       <c r="W65" s="44"/>
-      <c r="X65" s="110"/>
+      <c r="X65" s="88"/>
       <c r="Y65" s="45"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A66" s="113" t="s">
+      <c r="A66" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="114" t="s">
+      <c r="B66" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="115"/>
-      <c r="D66" s="116"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="94"/>
       <c r="E66" s="19"/>
       <c r="G66" s="35"/>
-      <c r="H66" s="110"/>
+      <c r="H66" s="88"/>
       <c r="I66" s="36"/>
       <c r="J66" s="1"/>
       <c r="K66" s="35"/>
-      <c r="L66" s="110"/>
+      <c r="L66" s="88"/>
       <c r="M66" s="36"/>
       <c r="O66" s="35"/>
-      <c r="P66" s="110"/>
+      <c r="P66" s="88"/>
       <c r="Q66" s="36"/>
       <c r="S66" s="44"/>
-      <c r="T66" s="110"/>
+      <c r="T66" s="88"/>
       <c r="U66" s="45"/>
       <c r="W66" s="44"/>
-      <c r="X66" s="110"/>
+      <c r="X66" s="88"/>
       <c r="Y66" s="45"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
@@ -5632,20 +5438,20 @@
       <c r="D67" s="57"/>
       <c r="E67" s="20"/>
       <c r="G67" s="35"/>
-      <c r="H67" s="110"/>
+      <c r="H67" s="88"/>
       <c r="I67" s="36"/>
       <c r="J67" s="1"/>
       <c r="K67" s="35"/>
-      <c r="L67" s="110"/>
+      <c r="L67" s="88"/>
       <c r="M67" s="36"/>
       <c r="O67" s="35"/>
-      <c r="P67" s="110"/>
+      <c r="P67" s="88"/>
       <c r="Q67" s="36"/>
       <c r="S67" s="44"/>
-      <c r="T67" s="110"/>
+      <c r="T67" s="88"/>
       <c r="U67" s="45"/>
       <c r="W67" s="44"/>
-      <c r="X67" s="110"/>
+      <c r="X67" s="88"/>
       <c r="Y67" s="45"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
@@ -5659,20 +5465,20 @@
       <c r="D68" s="57"/>
       <c r="E68" s="20"/>
       <c r="G68" s="35"/>
-      <c r="H68" s="110"/>
+      <c r="H68" s="88"/>
       <c r="I68" s="36"/>
       <c r="J68" s="1"/>
       <c r="K68" s="35"/>
-      <c r="L68" s="110"/>
+      <c r="L68" s="88"/>
       <c r="M68" s="36"/>
       <c r="O68" s="35"/>
-      <c r="P68" s="110"/>
+      <c r="P68" s="88"/>
       <c r="Q68" s="36"/>
       <c r="S68" s="44"/>
-      <c r="T68" s="110"/>
+      <c r="T68" s="88"/>
       <c r="U68" s="45"/>
       <c r="W68" s="44"/>
-      <c r="X68" s="110"/>
+      <c r="X68" s="88"/>
       <c r="Y68" s="45"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
@@ -5686,20 +5492,20 @@
       <c r="D69" s="57"/>
       <c r="E69" s="20"/>
       <c r="G69" s="35"/>
-      <c r="H69" s="110"/>
+      <c r="H69" s="88"/>
       <c r="I69" s="36"/>
       <c r="J69" s="1"/>
       <c r="K69" s="35"/>
-      <c r="L69" s="110"/>
+      <c r="L69" s="88"/>
       <c r="M69" s="36"/>
       <c r="O69" s="35"/>
-      <c r="P69" s="110"/>
+      <c r="P69" s="88"/>
       <c r="Q69" s="36"/>
       <c r="S69" s="44"/>
-      <c r="T69" s="110"/>
+      <c r="T69" s="88"/>
       <c r="U69" s="45"/>
       <c r="W69" s="44"/>
-      <c r="X69" s="110"/>
+      <c r="X69" s="88"/>
       <c r="Y69" s="45"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
@@ -5709,66 +5515,66 @@
       <c r="D70" s="57"/>
       <c r="E70" s="20"/>
       <c r="G70" s="35"/>
-      <c r="H70" s="110"/>
+      <c r="H70" s="88"/>
       <c r="I70" s="36"/>
       <c r="J70" s="1"/>
       <c r="K70" s="35"/>
-      <c r="L70" s="110"/>
+      <c r="L70" s="88"/>
       <c r="M70" s="36"/>
       <c r="O70" s="35"/>
-      <c r="P70" s="110"/>
+      <c r="P70" s="88"/>
       <c r="Q70" s="36"/>
       <c r="S70" s="44"/>
-      <c r="T70" s="110"/>
+      <c r="T70" s="88"/>
       <c r="U70" s="45"/>
       <c r="W70" s="44"/>
-      <c r="X70" s="110"/>
+      <c r="X70" s="88"/>
       <c r="Y70" s="45"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
-      <c r="B71" s="104"/>
-      <c r="C71" s="105"/>
-      <c r="D71" s="106"/>
+      <c r="B71" s="96"/>
+      <c r="C71" s="97"/>
+      <c r="D71" s="98"/>
       <c r="E71" s="20"/>
       <c r="G71" s="35"/>
-      <c r="H71" s="110"/>
+      <c r="H71" s="88"/>
       <c r="I71" s="36"/>
       <c r="J71" s="1"/>
       <c r="K71" s="35"/>
-      <c r="L71" s="110"/>
+      <c r="L71" s="88"/>
       <c r="M71" s="36"/>
       <c r="O71" s="35"/>
-      <c r="P71" s="110"/>
+      <c r="P71" s="88"/>
       <c r="Q71" s="36"/>
       <c r="S71" s="44"/>
-      <c r="T71" s="110"/>
+      <c r="T71" s="88"/>
       <c r="U71" s="45"/>
       <c r="W71" s="44"/>
-      <c r="X71" s="110"/>
+      <c r="X71" s="88"/>
       <c r="Y71" s="45"/>
     </row>
     <row r="72" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="16"/>
-      <c r="B72" s="107"/>
-      <c r="C72" s="108"/>
-      <c r="D72" s="109"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="100"/>
+      <c r="D72" s="101"/>
       <c r="E72" s="21"/>
       <c r="G72" s="37"/>
-      <c r="H72" s="111"/>
+      <c r="H72" s="89"/>
       <c r="I72" s="38"/>
       <c r="J72" s="1"/>
       <c r="K72" s="37"/>
-      <c r="L72" s="111"/>
+      <c r="L72" s="89"/>
       <c r="M72" s="38"/>
       <c r="O72" s="37"/>
-      <c r="P72" s="111"/>
+      <c r="P72" s="89"/>
       <c r="Q72" s="38"/>
       <c r="S72" s="46"/>
-      <c r="T72" s="112"/>
+      <c r="T72" s="90"/>
       <c r="U72" s="47"/>
       <c r="W72" s="46"/>
-      <c r="X72" s="112"/>
+      <c r="X72" s="90"/>
       <c r="Y72" s="47"/>
     </row>
     <row r="73" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -5804,266 +5610,266 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="S7:U31 Z10:AG31 Z33:AG34 S65:U71 W65:Y71 O65:Q71 G65:I71 K65:M71 A7:E36 G33:I36 G7:I31 K35:M36 O35:Q36 S33:U36 W35:AG36">
-    <cfRule type="expression" dxfId="91" priority="139">
+    <cfRule type="expression" dxfId="73" priority="139">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="140">
+    <cfRule type="expression" dxfId="72" priority="140">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H31 H33:H34">
-    <cfRule type="expression" dxfId="89" priority="121">
+    <cfRule type="expression" dxfId="71" priority="121">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="122">
+    <cfRule type="expression" dxfId="70" priority="122">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:I10">
-    <cfRule type="expression" dxfId="85" priority="113">
+    <cfRule type="expression" dxfId="69" priority="113">
       <formula>$C10="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="114">
+    <cfRule type="expression" dxfId="68" priority="114">
       <formula>$D10="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="expression" dxfId="83" priority="111">
+    <cfRule type="expression" dxfId="67" priority="111">
       <formula>$C12="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="112">
+    <cfRule type="expression" dxfId="66" priority="112">
       <formula>$D12="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:E63 G63:I63 K63:M63 O63:Q63 S63:U63 W63:AE63">
-    <cfRule type="expression" dxfId="81" priority="103">
+    <cfRule type="expression" dxfId="65" priority="103">
       <formula>$C63="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="104">
+    <cfRule type="expression" dxfId="64" priority="104">
       <formula>$D63="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z39:AG44 A51:E51 AA45:AG62 A37:E38 A50 A62 D50:E50 D62:E62 G38:I38 G51:I51 K51:M51 K38:M38 O38:Q38 O51:Q51 S51:U51 S37:U38 W37:AG38 W51:Y51">
-    <cfRule type="expression" dxfId="79" priority="101">
+    <cfRule type="expression" dxfId="63" priority="101">
       <formula>$C37="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="102">
+    <cfRule type="expression" dxfId="62" priority="102">
       <formula>$D37="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:I50">
-    <cfRule type="expression" dxfId="75" priority="59">
+    <cfRule type="expression" dxfId="61" priority="59">
       <formula>$C50="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="60">
+    <cfRule type="expression" dxfId="60" priority="60">
       <formula>$D50="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50:M50">
-    <cfRule type="expression" dxfId="73" priority="57">
+    <cfRule type="expression" dxfId="59" priority="57">
       <formula>$C50="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="58">
+    <cfRule type="expression" dxfId="58" priority="58">
       <formula>$D50="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O62:Q62">
-    <cfRule type="expression" dxfId="71" priority="63">
+    <cfRule type="expression" dxfId="57" priority="63">
       <formula>$C62="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="64">
+    <cfRule type="expression" dxfId="56" priority="64">
       <formula>$D62="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62:I62">
-    <cfRule type="expression" dxfId="69" priority="61">
+    <cfRule type="expression" dxfId="55" priority="61">
       <formula>$C62="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="62">
+    <cfRule type="expression" dxfId="54" priority="62">
       <formula>$D62="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K72:M72">
-    <cfRule type="expression" dxfId="67" priority="51">
+    <cfRule type="expression" dxfId="53" priority="51">
       <formula>$C72="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="52">
+    <cfRule type="expression" dxfId="52" priority="52">
       <formula>$D72="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O72:Q72">
-    <cfRule type="expression" dxfId="65" priority="49">
+    <cfRule type="expression" dxfId="51" priority="49">
       <formula>$C72="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="50">
+    <cfRule type="expression" dxfId="50" priority="50">
       <formula>$D72="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G72:I72">
-    <cfRule type="expression" dxfId="63" priority="53">
+    <cfRule type="expression" dxfId="49" priority="53">
       <formula>$C72="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="54">
+    <cfRule type="expression" dxfId="48" priority="54">
       <formula>$D72="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W50:Y50">
-    <cfRule type="expression" dxfId="61" priority="41">
+    <cfRule type="expression" dxfId="47" priority="41">
       <formula>$C50="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="42">
+    <cfRule type="expression" dxfId="46" priority="42">
       <formula>$D50="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W52:Y61 S52:U61 S39:U49 W39:Y49 W7:Y31 W33:Y34">
-    <cfRule type="expression" dxfId="59" priority="43">
+    <cfRule type="expression" dxfId="45" priority="43">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="44">
+    <cfRule type="expression" dxfId="44" priority="44">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W72:Y72">
-    <cfRule type="expression" dxfId="57" priority="33">
+    <cfRule type="expression" dxfId="43" priority="33">
       <formula>$C72="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="34">
+    <cfRule type="expression" dxfId="42" priority="34">
       <formula>$D72="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S72:U72">
-    <cfRule type="expression" dxfId="55" priority="31">
+    <cfRule type="expression" dxfId="41" priority="31">
       <formula>$C72="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="32">
+    <cfRule type="expression" dxfId="40" priority="32">
       <formula>$D72="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z59">
-    <cfRule type="expression" dxfId="47" priority="105">
+    <cfRule type="expression" dxfId="39" priority="105">
       <formula>$C63="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="106">
+    <cfRule type="expression" dxfId="38" priority="106">
       <formula>$D63="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z45 Z50:Z57">
-    <cfRule type="expression" dxfId="45" priority="107">
+    <cfRule type="expression" dxfId="37" priority="107">
       <formula>$C48="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="108">
+    <cfRule type="expression" dxfId="36" priority="108">
       <formula>$D48="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z58 Z46:Z49">
-    <cfRule type="expression" dxfId="43" priority="109">
+    <cfRule type="expression" dxfId="35" priority="109">
       <formula>$C50="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="110">
+    <cfRule type="expression" dxfId="34" priority="110">
       <formula>$D50="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O50:Q50">
-    <cfRule type="expression" dxfId="41" priority="55">
+    <cfRule type="expression" dxfId="33" priority="55">
       <formula>$C50="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="56">
+    <cfRule type="expression" dxfId="32" priority="56">
       <formula>$D50="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52:P61 L52:L61 H52:H61 H39:H49 L39:L49 P39:P49 P7:P31 L7:L31 L33:L34 P33:P34">
-    <cfRule type="expression" dxfId="39" priority="27">
+    <cfRule type="expression" dxfId="31" priority="27">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="28">
+    <cfRule type="expression" dxfId="30" priority="28">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K62:M62">
-    <cfRule type="expression" dxfId="37" priority="47">
+    <cfRule type="expression" dxfId="29" priority="47">
       <formula>$C62="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="48">
+    <cfRule type="expression" dxfId="28" priority="48">
       <formula>$D62="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S50:U50">
-    <cfRule type="expression" dxfId="35" priority="39">
+    <cfRule type="expression" dxfId="27" priority="39">
       <formula>$C50="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="40">
+    <cfRule type="expression" dxfId="26" priority="40">
       <formula>$D50="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S62:U62">
-    <cfRule type="expression" dxfId="33" priority="37">
+    <cfRule type="expression" dxfId="25" priority="37">
       <formula>$C62="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="38">
+    <cfRule type="expression" dxfId="24" priority="38">
       <formula>$D62="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W62:Y62">
-    <cfRule type="expression" dxfId="31" priority="35">
+    <cfRule type="expression" dxfId="23" priority="35">
       <formula>$C62="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="36">
+    <cfRule type="expression" dxfId="22" priority="36">
       <formula>$D62="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O52:Q61 K52:M61 G52:I61 G39:I49 K39:M49 O39:Q49 O7:Q31 K7:M31 K33:M34 O33:Q34">
-    <cfRule type="expression" dxfId="29" priority="29">
+    <cfRule type="expression" dxfId="21" priority="29">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
+    <cfRule type="expression" dxfId="20" priority="30">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32 P32">
-    <cfRule type="expression" dxfId="27" priority="17">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="18">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z32:AG32 S32:U32 A32:E32 G32:I32">
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="17" priority="25">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="16" priority="26">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="15" priority="23">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
+    <cfRule type="expression" dxfId="14" priority="24">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32:Y32">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="13" priority="21">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="12" priority="22">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:M32 O32:Q32">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>$C32="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>$D32="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:E61 A39:E49">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="9" priority="15">
       <formula>$C39="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="16">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>$D39="x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6114,18 +5920,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6338,14 +6144,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -6358,6 +6156,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_EN.xlsx
+++ b/default-mappings-xlsx/visitreport/VisitReport_Mapping_SAP_C4HANA_EN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\visitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7850E2D6-D7D2-4B95-B9DF-68A12C565479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729736AB-FAF9-4073-AB9B-B3A9D69121C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8Dyaui/daSUT/hOvn8XBo2s24xlJVXslcs1WHSyLVowDjRkSWj4RV+pFVEsQSEKModckNG3YVppR/q0TwGchqw==" workbookSaltValue="ZPx5szgFR6cPwbArCr9dlg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -3402,8 +3402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y65" activeCellId="19" sqref="I7:I35 M7:M35 Q7:Q35 U7:U35 Y7:Y35 I39:I50 M39:M50 Q39:Q50 U39:U50 Y39:Y50 I52:I62 M52:M62 Q52:Q62 U52:U62 Y52:Y62 I65:I72 M65:M72 Q65:Q72 U65:U72 Y65:Y72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5909,8 +5909,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D35 C52:D62 C39:D50" xr:uid="{6D646658-16D3-43D0-865C-2CFC2017A5FB}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y52:Y62 M52:M62 I52:I62 I39:I50 M39:M50 Y39:Y50 U52:U62 U39:U50 Q52:Q62 Q39:Q50 Q7:Q35 Y7:Y35 U7:U35 M7:M35 I7:I35 Y65:Y72 M65:M72 I65:I72 Q65:Q72 U65:U72" xr:uid="{D30D4402-75EA-41F5-9556-EC8A511CE101}">
-      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I35 M7:M35 Q7:Q35 U7:U35 Y7:Y35 I39:I50 M39:M50 Q39:Q50 U39:U50 Y39:Y50 I52:I62 M52:M62 Q52:Q62 U52:U62 Y52:Y62 I65:I72 M65:M72 Q65:Q72 U65:U72 Y65:Y72" xr:uid="{860DEF48-169D-447E-84E4-3E1F38B35626}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5920,18 +5920,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6144,6 +6144,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -6156,14 +6164,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
